--- a/REGULAR/BANICO, PILAR.xlsx
+++ b/REGULAR/BANICO, PILAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BAD57A-E73D-4FC9-880C-BCE692B0D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE0046-CECA-4457-B247-33422127202B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="288">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2056,7 +2056,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A379" activePane="bottomLeft"/>
       <selection activeCell="J502" sqref="J502"/>
-      <selection pane="bottomLeft" activeCell="B392" sqref="B392"/>
+      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2217,7 +2217,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.62099999999995</v>
+        <v>175.87099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2227,7 +2227,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241.80599999999998</v>
+        <v>242.05599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10446,19 +10446,27 @@
       <c r="A392" s="40">
         <v>44986</v>
       </c>
-      <c r="B392" s="20"/>
-      <c r="C392" s="13"/>
+      <c r="B392" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C392" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D392" s="39"/>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H392" s="39"/>
+      <c r="G392" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H392" s="39">
+        <v>1</v>
+      </c>
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
+      <c r="K392" s="49">
+        <v>45012</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">

--- a/REGULAR/BANICO, PILAR.xlsx
+++ b/REGULAR/BANICO, PILAR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE0046-CECA-4457-B247-33422127202B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="288">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1023,7 +1022,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1676,7 +1675,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1722,25 +1720,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K517" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2047,34 +2045,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K517"/>
+  <dimension ref="A2:K518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A379" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A379" activePane="bottomLeft"/>
       <selection activeCell="J502" sqref="J502"/>
-      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
+      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2093,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2115,7 +2113,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2135,7 +2133,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2143,7 +2141,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2156,7 +2154,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2173,7 +2171,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2227,12 +2225,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>242.05599999999998</v>
+        <v>241.05599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2254,7 +2252,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36312</v>
       </c>
@@ -2272,7 +2270,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36342</v>
       </c>
@@ -2292,7 +2290,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36373</v>
       </c>
@@ -2312,7 +2310,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2332,7 +2330,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36434</v>
       </c>
@@ -2352,7 +2350,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>36465</v>
       </c>
@@ -2372,7 +2370,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36495</v>
       </c>
@@ -2396,7 +2394,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>46</v>
       </c>
@@ -2414,7 +2412,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43831</v>
       </c>
@@ -2434,7 +2432,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -2454,7 +2452,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43922</v>
       </c>
@@ -2500,7 +2498,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43952</v>
       </c>
@@ -2520,7 +2518,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -2544,7 +2542,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -2564,7 +2562,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -2584,7 +2582,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -2604,7 +2602,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -2624,7 +2622,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -2648,7 +2646,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -2672,7 +2670,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -2690,7 +2688,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -2712,7 +2710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -2738,7 +2736,7 @@
         <v>37013</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -2762,7 +2760,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -2786,7 +2784,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37012</v>
       </c>
@@ -2806,7 +2804,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37043</v>
       </c>
@@ -2826,7 +2824,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37073</v>
       </c>
@@ -2846,7 +2844,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37104</v>
       </c>
@@ -2866,7 +2864,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37135</v>
       </c>
@@ -2886,7 +2884,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37165</v>
       </c>
@@ -2906,7 +2904,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37196</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -2956,7 +2954,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>60</v>
       </c>
@@ -2974,7 +2972,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -2996,7 +2994,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37288</v>
       </c>
@@ -3020,7 +3018,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37316</v>
       </c>
@@ -3040,7 +3038,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37347</v>
       </c>
@@ -3060,7 +3058,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37377</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3104,7 +3102,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37408</v>
       </c>
@@ -3124,7 +3122,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37438</v>
       </c>
@@ -3144,7 +3142,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37469</v>
       </c>
@@ -3164,7 +3162,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37500</v>
       </c>
@@ -3184,7 +3182,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37530</v>
       </c>
@@ -3208,7 +3206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3226,7 +3224,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37561</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3268,7 +3266,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37591</v>
       </c>
@@ -3290,7 +3288,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>71</v>
       </c>
@@ -3308,7 +3306,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37622</v>
       </c>
@@ -3328,7 +3326,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37653</v>
       </c>
@@ -3348,7 +3346,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37681</v>
       </c>
@@ -3370,7 +3368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37712</v>
       </c>
@@ -3394,7 +3392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -3414,7 +3412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37742</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37773</v>
       </c>
@@ -3456,7 +3454,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37803</v>
       </c>
@@ -3476,7 +3474,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37834</v>
       </c>
@@ -3496,7 +3494,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37865</v>
       </c>
@@ -3516,7 +3514,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37895</v>
       </c>
@@ -3536,7 +3534,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37926</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -3578,7 +3576,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37956</v>
       </c>
@@ -3598,7 +3596,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>79</v>
       </c>
@@ -3616,7 +3614,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37987</v>
       </c>
@@ -3636,7 +3634,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>38018</v>
       </c>
@@ -3656,7 +3654,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38047</v>
       </c>
@@ -3676,7 +3674,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38078</v>
       </c>
@@ -3696,7 +3694,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38108</v>
       </c>
@@ -3715,7 +3713,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3735,7 +3733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38139</v>
       </c>
@@ -3755,7 +3753,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38169</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3797,7 +3795,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38200</v>
       </c>
@@ -3817,7 +3815,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38231</v>
       </c>
@@ -3837,7 +3835,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38261</v>
       </c>
@@ -3857,7 +3855,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38292</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3901,7 +3899,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>86</v>
@@ -3923,7 +3921,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38322</v>
       </c>
@@ -3947,7 +3945,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3963,7 +3961,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>90</v>
       </c>
@@ -3981,7 +3979,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38353</v>
       </c>
@@ -4001,7 +3999,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38384</v>
       </c>
@@ -4021,7 +4019,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38412</v>
       </c>
@@ -4041,7 +4039,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38443</v>
       </c>
@@ -4061,7 +4059,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38473</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>95</v>
@@ -4107,7 +4105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4125,7 +4123,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -4171,7 +4169,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -4215,7 +4213,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -4235,7 +4233,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>101</v>
@@ -4283,7 +4281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38687</v>
       </c>
@@ -4303,7 +4301,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4319,7 +4317,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>103</v>
       </c>
@@ -4337,7 +4335,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38718</v>
       </c>
@@ -4357,7 +4355,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38749</v>
       </c>
@@ -4377,7 +4375,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38777</v>
       </c>
@@ -4397,7 +4395,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38808</v>
       </c>
@@ -4417,7 +4415,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38838</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38869</v>
       </c>
@@ -4461,7 +4459,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38899</v>
       </c>
@@ -4481,7 +4479,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38930</v>
       </c>
@@ -4501,7 +4499,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38961</v>
       </c>
@@ -4521,7 +4519,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38991</v>
       </c>
@@ -4541,7 +4539,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39022</v>
       </c>
@@ -4561,7 +4559,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39052</v>
       </c>
@@ -4581,7 +4579,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>106</v>
       </c>
@@ -4599,7 +4597,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39083</v>
       </c>
@@ -4619,7 +4617,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39114</v>
       </c>
@@ -4639,7 +4637,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39142</v>
       </c>
@@ -4661,7 +4659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>108</v>
@@ -4683,7 +4681,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39173</v>
       </c>
@@ -4703,7 +4701,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39203</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>39234</v>
       </c>
@@ -4749,7 +4747,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39264</v>
       </c>
@@ -4769,7 +4767,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39295</v>
       </c>
@@ -4789,7 +4787,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39326</v>
       </c>
@@ -4809,7 +4807,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39356</v>
       </c>
@@ -4829,7 +4827,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39387</v>
       </c>
@@ -4849,7 +4847,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39417</v>
       </c>
@@ -4869,7 +4867,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
         <v>111</v>
       </c>
@@ -4887,7 +4885,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39448</v>
       </c>
@@ -4907,7 +4905,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39479</v>
       </c>
@@ -4927,7 +4925,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39508</v>
       </c>
@@ -4947,7 +4945,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39539</v>
       </c>
@@ -4967,7 +4965,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39569</v>
       </c>
@@ -4991,7 +4989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39600</v>
       </c>
@@ -5011,7 +5009,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39630</v>
       </c>
@@ -5035,7 +5033,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>85</v>
@@ -5057,7 +5055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39661</v>
       </c>
@@ -5077,7 +5075,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39692</v>
       </c>
@@ -5101,7 +5099,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39722</v>
       </c>
@@ -5121,7 +5119,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39753</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39783</v>
       </c>
@@ -5171,7 +5169,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>118</v>
       </c>
@@ -5189,7 +5187,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39814</v>
       </c>
@@ -5209,7 +5207,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39845</v>
       </c>
@@ -5229,7 +5227,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39873</v>
       </c>
@@ -5249,7 +5247,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39904</v>
       </c>
@@ -5275,7 +5273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39934</v>
       </c>
@@ -5301,7 +5299,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39965</v>
       </c>
@@ -5321,7 +5319,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -5341,7 +5339,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40026</v>
       </c>
@@ -5361,7 +5359,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40057</v>
       </c>
@@ -5381,7 +5379,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40087</v>
       </c>
@@ -5403,7 +5401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40118</v>
       </c>
@@ -5429,7 +5427,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40148</v>
       </c>
@@ -5455,7 +5453,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
         <v>130</v>
       </c>
@@ -5473,7 +5471,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40179</v>
       </c>
@@ -5499,7 +5497,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40210</v>
       </c>
@@ -5519,7 +5517,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40238</v>
       </c>
@@ -5539,7 +5537,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40269</v>
       </c>
@@ -5559,7 +5557,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40299</v>
       </c>
@@ -5585,7 +5583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40330</v>
       </c>
@@ -5605,7 +5603,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40360</v>
       </c>
@@ -5625,7 +5623,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40391</v>
       </c>
@@ -5649,7 +5647,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
         <v>40422</v>
       </c>
@@ -5673,7 +5671,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40452</v>
       </c>
@@ -5697,7 +5695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>126</v>
@@ -5721,7 +5719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>128</v>
@@ -5741,7 +5739,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40492</v>
       </c>
@@ -5765,7 +5763,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40513</v>
       </c>
@@ -5785,7 +5783,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>137</v>
       </c>
@@ -5803,7 +5801,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40544</v>
       </c>
@@ -5823,7 +5821,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40575</v>
       </c>
@@ -5843,7 +5841,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40603</v>
       </c>
@@ -5863,7 +5861,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40634</v>
       </c>
@@ -5883,7 +5881,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40664</v>
       </c>
@@ -5909,7 +5907,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40695</v>
       </c>
@@ -5933,7 +5931,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>104</v>
@@ -5957,7 +5955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40725</v>
       </c>
@@ -5983,7 +5981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>40756</v>
       </c>
@@ -6007,7 +6005,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>124</v>
@@ -6031,7 +6029,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40825</v>
       </c>
@@ -6057,7 +6055,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40817</v>
       </c>
@@ -6077,7 +6075,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40848</v>
       </c>
@@ -6103,7 +6101,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40878</v>
       </c>
@@ -6127,7 +6125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>144</v>
@@ -6149,7 +6147,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>146</v>
       </c>
@@ -6167,7 +6165,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40909</v>
       </c>
@@ -6191,7 +6189,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40940</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>148</v>
@@ -6237,7 +6235,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40969</v>
       </c>
@@ -6258,7 +6256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>151</v>
@@ -6279,7 +6277,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41000</v>
       </c>
@@ -6299,7 +6297,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>153</v>
@@ -6319,7 +6317,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41030</v>
       </c>
@@ -6343,7 +6341,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>154</v>
@@ -6363,7 +6361,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>155</v>
@@ -6385,7 +6383,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -6407,7 +6405,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>156</v>
@@ -6427,7 +6425,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41061</v>
       </c>
@@ -6447,7 +6445,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41091</v>
       </c>
@@ -6467,7 +6465,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41122</v>
       </c>
@@ -6487,7 +6485,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41153</v>
       </c>
@@ -6509,7 +6507,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>116</v>
@@ -6531,7 +6529,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41183</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>93</v>
@@ -6577,7 +6575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6593,7 +6591,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41214</v>
       </c>
@@ -6617,7 +6615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>116</v>
@@ -6641,7 +6639,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41244</v>
       </c>
@@ -6667,7 +6665,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>166</v>
       </c>
@@ -6685,7 +6683,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41275</v>
       </c>
@@ -6711,7 +6709,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41306</v>
       </c>
@@ -6735,7 +6733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>116</v>
@@ -6757,7 +6755,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41334</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41365</v>
       </c>
@@ -6802,7 +6800,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -6826,7 +6824,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41395</v>
       </c>
@@ -6850,7 +6848,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>174</v>
@@ -6874,7 +6872,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41426</v>
       </c>
@@ -6894,7 +6892,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41456</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41487</v>
       </c>
@@ -6942,7 +6940,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -6964,7 +6962,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41518</v>
       </c>
@@ -6984,7 +6982,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>180</v>
@@ -7010,7 +7008,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -7034,7 +7032,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>174</v>
@@ -7058,7 +7056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>182</v>
@@ -7080,7 +7078,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41579</v>
       </c>
@@ -7104,7 +7102,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41609</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>185</v>
@@ -7150,7 +7148,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7166,7 +7164,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>187</v>
       </c>
@@ -7184,7 +7182,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41640</v>
       </c>
@@ -7206,7 +7204,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>107</v>
@@ -7226,7 +7224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>188</v>
@@ -7246,7 +7244,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41671</v>
       </c>
@@ -7268,7 +7266,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41699</v>
       </c>
@@ -7290,7 +7288,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41730</v>
       </c>
@@ -7318,7 +7316,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>193</v>
@@ -7336,7 +7334,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41760</v>
       </c>
@@ -7360,7 +7358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>174</v>
@@ -7382,7 +7380,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>196</v>
@@ -7404,7 +7402,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41791</v>
       </c>
@@ -7424,7 +7422,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41821</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41852</v>
       </c>
@@ -7472,7 +7470,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>174</v>
@@ -7494,7 +7492,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -7518,7 +7516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>200</v>
@@ -7540,7 +7538,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41913</v>
       </c>
@@ -7564,7 +7562,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41944</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>204</v>
@@ -7612,7 +7610,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40" t="s">
         <v>206</v>
       </c>
@@ -7636,7 +7634,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
         <v>208</v>
       </c>
@@ -7654,7 +7652,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42005</v>
       </c>
@@ -7678,7 +7676,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42036</v>
       </c>
@@ -7700,7 +7698,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7722,7 +7720,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42064</v>
       </c>
@@ -7744,7 +7742,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42095</v>
       </c>
@@ -7768,7 +7766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>210</v>
@@ -7788,7 +7786,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>214</v>
@@ -7810,7 +7808,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>215</v>
@@ -7832,7 +7830,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>42125</v>
       </c>
@@ -7856,7 +7854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -7876,7 +7874,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42156</v>
       </c>
@@ -7898,7 +7896,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -7922,7 +7920,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>174</v>
@@ -7940,7 +7938,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>223</v>
@@ -7962,7 +7960,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42217</v>
       </c>
@@ -7986,7 +7984,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42248</v>
       </c>
@@ -8010,7 +8008,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42278</v>
       </c>
@@ -8034,7 +8032,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42309</v>
       </c>
@@ -8058,7 +8056,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>229</v>
@@ -8078,7 +8076,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42339</v>
       </c>
@@ -8102,7 +8100,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="48" t="s">
         <v>231</v>
       </c>
@@ -8120,7 +8118,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42370</v>
       </c>
@@ -8142,7 +8140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>174</v>
@@ -8164,7 +8162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>232</v>
@@ -8188,7 +8186,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42401</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42430</v>
       </c>
@@ -8232,7 +8230,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42461</v>
       </c>
@@ -8252,7 +8250,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42491</v>
       </c>
@@ -8276,7 +8274,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -8300,7 +8298,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42552</v>
       </c>
@@ -8324,7 +8322,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42583</v>
       </c>
@@ -8348,7 +8346,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42614</v>
       </c>
@@ -8372,7 +8370,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -8396,7 +8394,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42644</v>
       </c>
@@ -8416,7 +8414,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>213</v>
@@ -8440,7 +8438,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8462,7 +8460,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42675</v>
       </c>
@@ -8486,7 +8484,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42705</v>
       </c>
@@ -8510,7 +8508,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>249</v>
@@ -8532,7 +8530,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
         <v>251</v>
       </c>
@@ -8550,7 +8548,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42736</v>
       </c>
@@ -8574,7 +8572,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>252</v>
@@ -8594,7 +8592,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>253</v>
@@ -8614,7 +8612,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40" t="s">
         <v>255</v>
       </c>
@@ -8634,7 +8632,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42795</v>
       </c>
@@ -8654,7 +8652,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42826</v>
       </c>
@@ -8674,7 +8672,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42856</v>
       </c>
@@ -8694,7 +8692,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42887</v>
       </c>
@@ -8720,7 +8718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42917</v>
       </c>
@@ -8740,7 +8738,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42948</v>
       </c>
@@ -8764,7 +8762,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42979</v>
       </c>
@@ -8786,7 +8784,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>210</v>
@@ -8808,7 +8806,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>181</v>
@@ -8828,7 +8826,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -8848,7 +8846,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -8868,7 +8866,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -8892,7 +8890,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>259</v>
@@ -8914,7 +8912,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="48" t="s">
         <v>261</v>
       </c>
@@ -8932,7 +8930,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8958,7 +8956,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8984,7 +8982,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -9004,7 +9002,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -9024,7 +9022,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43221</v>
       </c>
@@ -9044,7 +9042,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -9064,7 +9062,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -9084,7 +9082,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43344</v>
       </c>
@@ -9104,7 +9102,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43374</v>
       </c>
@@ -9124,7 +9122,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43405</v>
       </c>
@@ -9144,7 +9142,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9170,7 +9168,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9192,7 +9190,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>266</v>
       </c>
@@ -9210,7 +9208,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43466</v>
       </c>
@@ -9236,7 +9234,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43497</v>
       </c>
@@ -9256,7 +9254,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43525</v>
       </c>
@@ -9276,7 +9274,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9320,7 +9318,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9340,7 +9338,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43647</v>
       </c>
@@ -9366,7 +9364,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43678</v>
       </c>
@@ -9386,7 +9384,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9406,7 +9404,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9432,7 +9430,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43770</v>
       </c>
@@ -9452,7 +9450,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -9478,7 +9476,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9496,7 +9494,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23" t="s">
         <v>273</v>
       </c>
@@ -9514,7 +9512,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43831</v>
       </c>
@@ -9534,7 +9532,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43862</v>
       </c>
@@ -9558,7 +9556,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43891</v>
       </c>
@@ -9578,7 +9576,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43922</v>
       </c>
@@ -9598,7 +9596,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43952</v>
       </c>
@@ -9618,7 +9616,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43983</v>
       </c>
@@ -9638,7 +9636,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44013</v>
       </c>
@@ -9658,7 +9656,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44044</v>
       </c>
@@ -9678,7 +9676,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44075</v>
       </c>
@@ -9698,7 +9696,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44105</v>
       </c>
@@ -9718,7 +9716,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44136</v>
       </c>
@@ -9738,7 +9736,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44166</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>242</v>
@@ -9782,7 +9780,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23" t="s">
         <v>277</v>
       </c>
@@ -9802,7 +9800,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9822,7 +9820,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -9842,7 +9840,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -9862,7 +9860,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -9882,7 +9880,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -9902,7 +9900,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -9926,7 +9924,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -9950,7 +9948,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -9970,7 +9968,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -9990,7 +9988,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -10010,7 +10008,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -10030,7 +10028,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -10056,7 +10054,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>282</v>
       </c>
@@ -10074,7 +10072,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -10094,7 +10092,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -10114,7 +10112,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -10134,7 +10132,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -10154,7 +10152,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -10174,7 +10172,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -10194,7 +10192,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>174</v>
@@ -10218,7 +10216,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44743</v>
       </c>
@@ -10244,7 +10242,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44774</v>
       </c>
@@ -10266,7 +10264,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44805</v>
       </c>
@@ -10286,7 +10284,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44835</v>
       </c>
@@ -10312,7 +10310,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44866</v>
       </c>
@@ -10332,7 +10330,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44896</v>
       </c>
@@ -10358,7 +10356,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10378,7 +10376,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>287</v>
       </c>
@@ -10396,7 +10394,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44927</v>
       </c>
@@ -10416,7 +10414,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44958</v>
       </c>
@@ -10442,7 +10440,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44986</v>
       </c>
@@ -10468,11 +10466,11 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B393" s="20"/>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="40"/>
+      <c r="B393" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
       <c r="E393" s="9"/>
@@ -10481,14 +10479,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H393" s="39"/>
+      <c r="H393" s="39">
+        <v>1</v>
+      </c>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K393" s="49">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10504,9 +10506,9 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10522,9 +10524,9 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10540,9 +10542,9 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10558,9 +10560,9 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10576,9 +10578,9 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10594,9 +10596,9 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10612,9 +10614,9 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10630,9 +10632,9 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10648,9 +10650,9 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10666,9 +10668,9 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10684,9 +10686,9 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10702,9 +10704,9 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10720,9 +10722,9 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10738,9 +10740,9 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10756,9 +10758,9 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10774,9 +10776,9 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10792,9 +10794,9 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10810,9 +10812,9 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10828,9 +10830,9 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10846,9 +10848,9 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10864,9 +10866,9 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10882,9 +10884,9 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10900,9 +10902,9 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10918,9 +10920,9 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10936,9 +10938,9 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10954,9 +10956,9 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10972,9 +10974,9 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10990,9 +10992,9 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11008,9 +11010,9 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11026,9 +11028,9 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11044,9 +11046,9 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11062,9 +11064,9 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11080,9 +11082,9 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11098,9 +11100,9 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11116,9 +11118,9 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11134,9 +11136,9 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11152,9 +11154,9 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11170,9 +11172,9 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11188,9 +11190,9 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11206,9 +11208,9 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11224,9 +11226,9 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11242,9 +11244,9 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11260,9 +11262,9 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11278,9 +11280,9 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11296,9 +11298,9 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11314,9 +11316,9 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11332,9 +11334,9 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11350,9 +11352,9 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11368,9 +11370,9 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11386,9 +11388,9 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11404,9 +11406,9 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11422,9 +11424,9 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11440,9 +11442,9 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11458,9 +11460,9 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11476,9 +11478,9 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11494,9 +11496,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11512,9 +11514,9 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11530,9 +11532,9 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11548,9 +11550,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11566,9 +11568,9 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11584,9 +11586,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11602,9 +11604,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11620,9 +11622,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11638,9 +11640,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11656,9 +11658,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11674,9 +11676,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11692,9 +11694,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11710,9 +11712,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11728,9 +11730,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11746,9 +11748,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11764,9 +11766,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -11782,9 +11784,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -11800,9 +11802,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -11818,9 +11820,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -11836,9 +11838,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -11854,9 +11856,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -11872,9 +11874,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -11890,9 +11892,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -11908,9 +11910,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -11926,9 +11928,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -11944,9 +11946,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -11962,9 +11964,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -11980,9 +11982,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -11998,9 +12000,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12016,9 +12018,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12034,9 +12036,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12052,9 +12054,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12070,9 +12072,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12088,9 +12090,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12106,9 +12108,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12124,9 +12126,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12142,9 +12144,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12160,9 +12162,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12178,9 +12180,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12196,9 +12198,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12214,9 +12216,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12232,9 +12234,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12250,9 +12252,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12268,9 +12270,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12286,9 +12288,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12304,9 +12306,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12322,9 +12324,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12340,9 +12342,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12358,9 +12360,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12376,9 +12378,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12394,9 +12396,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12412,9 +12414,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12430,9 +12432,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12448,9 +12450,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12466,9 +12468,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -12484,9 +12486,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -12502,9 +12504,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -12520,9 +12522,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -12538,9 +12540,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -12556,9 +12558,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -12574,9 +12576,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -12592,9 +12594,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -12610,8 +12612,10 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A512" s="40"/>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="40">
+        <v>48611</v>
+      </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
@@ -12626,7 +12630,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -12642,7 +12646,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12658,7 +12662,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12674,7 +12678,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12690,21 +12694,37 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517" s="41"/>
-      <c r="B517" s="15"/>
-      <c r="C517" s="42"/>
-      <c r="D517" s="43"/>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="40"/>
+      <c r="B517" s="20"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="39"/>
       <c r="E517" s="9"/>
-      <c r="F517" s="15"/>
+      <c r="F517" s="20"/>
       <c r="G517" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H517" s="43"/>
+      <c r="H517" s="39"/>
       <c r="I517" s="9"/>
-      <c r="J517" s="12"/>
-      <c r="K517" s="15"/>
+      <c r="J517" s="11"/>
+      <c r="K517" s="20"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="41"/>
+      <c r="B518" s="15"/>
+      <c r="C518" s="42"/>
+      <c r="D518" s="43"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="15"/>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H518" s="43"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="12"/>
+      <c r="K518" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12721,10 +12741,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12747,28 +12767,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12781,7 +12801,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12810,7 +12830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12830,17 +12850,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12861,7 +12881,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12888,7 +12908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12914,7 +12934,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12940,7 +12960,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12966,7 +12986,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12992,7 +13012,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13018,7 +13038,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13044,7 +13064,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13070,7 +13090,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13090,7 +13110,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13110,7 +13130,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13130,7 +13150,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13151,7 +13171,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13172,7 +13192,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13193,7 +13213,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13214,7 +13234,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13235,7 +13255,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13256,7 +13276,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13277,7 +13297,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13298,7 +13318,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13319,7 +13339,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13340,7 +13360,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13361,7 +13381,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13382,7 +13402,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13403,7 +13423,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13424,7 +13444,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13445,7 +13465,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13466,7 +13486,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13487,7 +13507,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13508,7 +13528,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13529,7 +13549,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13550,7 +13570,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13559,7 +13579,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13568,7 +13588,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13577,7 +13597,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13586,7 +13606,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13595,7 +13615,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13604,7 +13624,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13613,7 +13633,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13622,7 +13642,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13631,7 +13651,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13640,7 +13660,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13649,7 +13669,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13658,7 +13678,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13667,7 +13687,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13676,7 +13696,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13685,7 +13705,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13694,7 +13714,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13703,7 +13723,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13712,7 +13732,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13721,7 +13741,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13730,7 +13750,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13739,7 +13759,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13748,7 +13768,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13757,7 +13777,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13766,7 +13786,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13775,7 +13795,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13784,7 +13804,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13793,7 +13813,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13802,7 +13822,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13811,7 +13831,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BANICO, PILAR.xlsx
+++ b/REGULAR/BANICO, PILAR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF525924-A11D-409A-9847-611B6B10C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="289">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1018,11 +1019,14 @@
   <si>
     <t>2023</t>
   </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1720,25 +1724,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2045,34 +2049,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A379" activePane="bottomLeft"/>
-      <selection activeCell="J502" sqref="J502"/>
-      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
+      <pane ySplit="3696" topLeftCell="A379"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2093,11 +2097,13 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="55" t="s">
+        <v>288</v>
+      </c>
       <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -2113,7 +2119,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2139,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2141,7 +2147,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2154,7 +2160,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2171,7 +2177,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2225,12 +2231,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241.05599999999998</v>
+        <v>240.05599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2252,7 +2258,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36312</v>
       </c>
@@ -2270,7 +2276,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36342</v>
       </c>
@@ -2290,7 +2296,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36373</v>
       </c>
@@ -2310,7 +2316,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2330,7 +2336,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36434</v>
       </c>
@@ -2350,7 +2356,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>36465</v>
       </c>
@@ -2370,7 +2376,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36495</v>
       </c>
@@ -2394,7 +2400,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>46</v>
       </c>
@@ -2412,7 +2418,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43831</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -2452,7 +2458,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43922</v>
       </c>
@@ -2498,7 +2504,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43952</v>
       </c>
@@ -2518,7 +2524,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -2542,7 +2548,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -2562,7 +2568,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -2582,7 +2588,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -2646,7 +2652,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -2670,7 +2676,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>37013</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -2760,7 +2766,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -2784,7 +2790,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>37012</v>
       </c>
@@ -2804,7 +2810,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>37043</v>
       </c>
@@ -2824,7 +2830,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37073</v>
       </c>
@@ -2844,7 +2850,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37104</v>
       </c>
@@ -2864,7 +2870,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>37135</v>
       </c>
@@ -2884,7 +2890,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37165</v>
       </c>
@@ -2904,7 +2910,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>37196</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -2954,7 +2960,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>60</v>
       </c>
@@ -2972,7 +2978,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -2994,7 +3000,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37288</v>
       </c>
@@ -3018,7 +3024,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>37316</v>
       </c>
@@ -3038,7 +3044,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37347</v>
       </c>
@@ -3058,7 +3064,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37377</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3102,7 +3108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37408</v>
       </c>
@@ -3122,7 +3128,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37438</v>
       </c>
@@ -3142,7 +3148,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37469</v>
       </c>
@@ -3162,7 +3168,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37500</v>
       </c>
@@ -3182,7 +3188,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37530</v>
       </c>
@@ -3206,7 +3212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3224,7 +3230,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37561</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3266,7 +3272,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37591</v>
       </c>
@@ -3288,7 +3294,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>71</v>
       </c>
@@ -3306,7 +3312,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37622</v>
       </c>
@@ -3326,7 +3332,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37653</v>
       </c>
@@ -3346,7 +3352,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37681</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37712</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -3412,7 +3418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37742</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37773</v>
       </c>
@@ -3454,7 +3460,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37803</v>
       </c>
@@ -3474,7 +3480,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37834</v>
       </c>
@@ -3494,7 +3500,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37865</v>
       </c>
@@ -3514,7 +3520,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37895</v>
       </c>
@@ -3534,7 +3540,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37926</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -3576,7 +3582,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37956</v>
       </c>
@@ -3596,7 +3602,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>79</v>
       </c>
@@ -3614,7 +3620,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37987</v>
       </c>
@@ -3634,7 +3640,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>38018</v>
       </c>
@@ -3654,7 +3660,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>38047</v>
       </c>
@@ -3674,7 +3680,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>38078</v>
       </c>
@@ -3694,7 +3700,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>38108</v>
       </c>
@@ -3713,7 +3719,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3733,7 +3739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>38139</v>
       </c>
@@ -3753,7 +3759,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>38169</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3795,7 +3801,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38200</v>
       </c>
@@ -3815,7 +3821,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38231</v>
       </c>
@@ -3835,7 +3841,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>38261</v>
       </c>
@@ -3855,7 +3861,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38292</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3899,7 +3905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>86</v>
@@ -3921,7 +3927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38322</v>
       </c>
@@ -3945,7 +3951,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3961,7 +3967,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>90</v>
       </c>
@@ -3979,7 +3985,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38353</v>
       </c>
@@ -3999,7 +4005,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>38384</v>
       </c>
@@ -4019,7 +4025,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38412</v>
       </c>
@@ -4039,7 +4045,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>38443</v>
       </c>
@@ -4059,7 +4065,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38473</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>95</v>
@@ -4105,7 +4111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4123,7 +4129,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -4169,7 +4175,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -4213,7 +4219,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -4233,7 +4239,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>101</v>
@@ -4281,7 +4287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38687</v>
       </c>
@@ -4301,7 +4307,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4317,7 +4323,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>103</v>
       </c>
@@ -4335,7 +4341,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>38718</v>
       </c>
@@ -4355,7 +4361,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38749</v>
       </c>
@@ -4375,7 +4381,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38777</v>
       </c>
@@ -4395,7 +4401,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38808</v>
       </c>
@@ -4415,7 +4421,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38838</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38869</v>
       </c>
@@ -4459,7 +4465,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38899</v>
       </c>
@@ -4479,7 +4485,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38930</v>
       </c>
@@ -4499,7 +4505,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38961</v>
       </c>
@@ -4519,7 +4525,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38991</v>
       </c>
@@ -4539,7 +4545,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>39022</v>
       </c>
@@ -4559,7 +4565,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39052</v>
       </c>
@@ -4579,7 +4585,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>106</v>
       </c>
@@ -4597,7 +4603,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>39083</v>
       </c>
@@ -4617,7 +4623,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39114</v>
       </c>
@@ -4637,7 +4643,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39142</v>
       </c>
@@ -4659,7 +4665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>108</v>
@@ -4681,7 +4687,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39173</v>
       </c>
@@ -4701,7 +4707,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>39203</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
         <v>39234</v>
       </c>
@@ -4747,7 +4753,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>39264</v>
       </c>
@@ -4767,7 +4773,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>39295</v>
       </c>
@@ -4787,7 +4793,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>39326</v>
       </c>
@@ -4807,7 +4813,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>39356</v>
       </c>
@@ -4827,7 +4833,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>39387</v>
       </c>
@@ -4847,7 +4853,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39417</v>
       </c>
@@ -4867,7 +4873,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="s">
         <v>111</v>
       </c>
@@ -4885,7 +4891,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>39448</v>
       </c>
@@ -4905,7 +4911,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39479</v>
       </c>
@@ -4925,7 +4931,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39508</v>
       </c>
@@ -4945,7 +4951,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39539</v>
       </c>
@@ -4965,7 +4971,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39569</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39600</v>
       </c>
@@ -5009,7 +5015,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39630</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>85</v>
@@ -5055,7 +5061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>39661</v>
       </c>
@@ -5075,7 +5081,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>39692</v>
       </c>
@@ -5099,7 +5105,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>39722</v>
       </c>
@@ -5119,7 +5125,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39753</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39783</v>
       </c>
@@ -5169,7 +5175,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
         <v>118</v>
       </c>
@@ -5187,7 +5193,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39814</v>
       </c>
@@ -5207,7 +5213,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39845</v>
       </c>
@@ -5227,7 +5233,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>39873</v>
       </c>
@@ -5247,7 +5253,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>39904</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39934</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39965</v>
       </c>
@@ -5319,7 +5325,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -5339,7 +5345,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40026</v>
       </c>
@@ -5359,7 +5365,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40057</v>
       </c>
@@ -5379,7 +5385,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40087</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>40118</v>
       </c>
@@ -5427,7 +5433,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40148</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23" t="s">
         <v>130</v>
       </c>
@@ -5471,7 +5477,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>40179</v>
       </c>
@@ -5497,7 +5503,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40210</v>
       </c>
@@ -5517,7 +5523,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>40238</v>
       </c>
@@ -5537,7 +5543,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>40269</v>
       </c>
@@ -5557,7 +5563,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>40299</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>40330</v>
       </c>
@@ -5603,7 +5609,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>40360</v>
       </c>
@@ -5623,7 +5629,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40391</v>
       </c>
@@ -5647,7 +5653,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41">
         <v>40422</v>
       </c>
@@ -5671,7 +5677,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>40452</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>126</v>
@@ -5719,7 +5725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>128</v>
@@ -5739,7 +5745,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>40492</v>
       </c>
@@ -5763,7 +5769,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40513</v>
       </c>
@@ -5783,7 +5789,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23" t="s">
         <v>137</v>
       </c>
@@ -5801,7 +5807,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40544</v>
       </c>
@@ -5821,7 +5827,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40575</v>
       </c>
@@ -5841,7 +5847,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40603</v>
       </c>
@@ -5861,7 +5867,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40634</v>
       </c>
@@ -5881,7 +5887,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40664</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40695</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>104</v>
@@ -5955,7 +5961,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40725</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41">
         <v>40756</v>
       </c>
@@ -6005,7 +6011,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>124</v>
@@ -6029,7 +6035,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40825</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>40817</v>
       </c>
@@ -6075,7 +6081,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40848</v>
       </c>
@@ -6101,7 +6107,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40878</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>144</v>
@@ -6147,7 +6153,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23" t="s">
         <v>146</v>
       </c>
@@ -6165,7 +6171,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>40909</v>
       </c>
@@ -6189,7 +6195,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>40940</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>148</v>
@@ -6235,7 +6241,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40969</v>
       </c>
@@ -6256,7 +6262,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>151</v>
@@ -6277,7 +6283,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41000</v>
       </c>
@@ -6297,7 +6303,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>153</v>
@@ -6317,7 +6323,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41030</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>154</v>
@@ -6361,7 +6367,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>155</v>
@@ -6383,7 +6389,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -6405,7 +6411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>156</v>
@@ -6425,7 +6431,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>41061</v>
       </c>
@@ -6445,7 +6451,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>41091</v>
       </c>
@@ -6465,7 +6471,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41122</v>
       </c>
@@ -6485,7 +6491,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41153</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>116</v>
@@ -6529,7 +6535,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41183</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>93</v>
@@ -6575,7 +6581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6591,7 +6597,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41214</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>116</v>
@@ -6639,7 +6645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41244</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23" t="s">
         <v>166</v>
       </c>
@@ -6683,7 +6689,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>41275</v>
       </c>
@@ -6709,7 +6715,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>41306</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>116</v>
@@ -6755,7 +6761,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>41334</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41365</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -6824,7 +6830,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>41395</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>174</v>
@@ -6872,7 +6878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>41426</v>
       </c>
@@ -6892,7 +6898,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>41456</v>
       </c>
@@ -6916,7 +6922,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>41487</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -6962,7 +6968,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>41518</v>
       </c>
@@ -6982,7 +6988,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>180</v>
@@ -7008,7 +7014,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -7032,7 +7038,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>174</v>
@@ -7056,7 +7062,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>182</v>
@@ -7078,7 +7084,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>41579</v>
       </c>
@@ -7102,7 +7108,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>41609</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>185</v>
@@ -7148,7 +7154,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7164,7 +7170,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23" t="s">
         <v>187</v>
       </c>
@@ -7182,7 +7188,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>41640</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>107</v>
@@ -7224,7 +7230,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>188</v>
@@ -7244,7 +7250,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41671</v>
       </c>
@@ -7266,7 +7272,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>41699</v>
       </c>
@@ -7288,7 +7294,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>41730</v>
       </c>
@@ -7316,7 +7322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>193</v>
@@ -7334,7 +7340,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>41760</v>
       </c>
@@ -7358,7 +7364,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>174</v>
@@ -7380,7 +7386,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>196</v>
@@ -7402,7 +7408,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>41791</v>
       </c>
@@ -7422,7 +7428,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>41821</v>
       </c>
@@ -7448,7 +7454,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>41852</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>174</v>
@@ -7492,7 +7498,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>200</v>
@@ -7538,7 +7544,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>41913</v>
       </c>
@@ -7562,7 +7568,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>41944</v>
       </c>
@@ -7588,7 +7594,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>204</v>
@@ -7610,7 +7616,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40" t="s">
         <v>206</v>
       </c>
@@ -7634,7 +7640,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23" t="s">
         <v>208</v>
       </c>
@@ -7652,7 +7658,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>42005</v>
       </c>
@@ -7676,7 +7682,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>42036</v>
       </c>
@@ -7698,7 +7704,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7720,7 +7726,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>42064</v>
       </c>
@@ -7742,7 +7748,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42095</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>210</v>
@@ -7786,7 +7792,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>214</v>
@@ -7808,7 +7814,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>215</v>
@@ -7830,7 +7836,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41">
         <v>42125</v>
       </c>
@@ -7854,7 +7860,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -7874,7 +7880,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>42156</v>
       </c>
@@ -7896,7 +7902,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -7920,7 +7926,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>174</v>
@@ -7938,7 +7944,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>223</v>
@@ -7960,7 +7966,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42217</v>
       </c>
@@ -7984,7 +7990,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>42248</v>
       </c>
@@ -8008,7 +8014,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>42278</v>
       </c>
@@ -8032,7 +8038,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>42309</v>
       </c>
@@ -8056,7 +8062,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>229</v>
@@ -8076,7 +8082,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>42339</v>
       </c>
@@ -8100,7 +8106,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="48" t="s">
         <v>231</v>
       </c>
@@ -8118,7 +8124,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>42370</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>174</v>
@@ -8162,7 +8168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>232</v>
@@ -8186,7 +8192,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>42401</v>
       </c>
@@ -8210,7 +8216,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>42430</v>
       </c>
@@ -8230,7 +8236,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>42461</v>
       </c>
@@ -8250,7 +8256,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>42491</v>
       </c>
@@ -8274,7 +8280,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -8298,7 +8304,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>42552</v>
       </c>
@@ -8322,7 +8328,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>42583</v>
       </c>
@@ -8346,7 +8352,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>42614</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -8394,7 +8400,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>42644</v>
       </c>
@@ -8414,7 +8420,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>213</v>
@@ -8438,7 +8444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8460,7 +8466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>42675</v>
       </c>
@@ -8484,7 +8490,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>42705</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>249</v>
@@ -8530,7 +8536,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="48" t="s">
         <v>251</v>
       </c>
@@ -8548,7 +8554,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>42736</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>252</v>
@@ -8592,7 +8598,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>253</v>
@@ -8612,7 +8618,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40" t="s">
         <v>255</v>
       </c>
@@ -8632,7 +8638,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>42795</v>
       </c>
@@ -8652,7 +8658,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>42826</v>
       </c>
@@ -8672,7 +8678,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>42856</v>
       </c>
@@ -8692,7 +8698,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>42887</v>
       </c>
@@ -8718,7 +8724,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>42917</v>
       </c>
@@ -8738,7 +8744,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>42948</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>42979</v>
       </c>
@@ -8784,7 +8790,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>210</v>
@@ -8806,7 +8812,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>181</v>
@@ -8826,7 +8832,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -8846,7 +8852,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -8866,7 +8872,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -8890,7 +8896,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>259</v>
@@ -8912,7 +8918,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="48" t="s">
         <v>261</v>
       </c>
@@ -8930,7 +8936,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -9002,7 +9008,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -9022,7 +9028,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>43221</v>
       </c>
@@ -9042,7 +9048,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -9062,7 +9068,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -9082,7 +9088,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>43344</v>
       </c>
@@ -9102,7 +9108,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43374</v>
       </c>
@@ -9122,7 +9128,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43405</v>
       </c>
@@ -9142,7 +9148,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9190,7 +9196,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>266</v>
       </c>
@@ -9208,7 +9214,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43466</v>
       </c>
@@ -9234,7 +9240,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43497</v>
       </c>
@@ -9254,7 +9260,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43525</v>
       </c>
@@ -9274,7 +9280,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9298,7 +9304,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9318,7 +9324,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9338,7 +9344,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>43647</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>43678</v>
       </c>
@@ -9384,7 +9390,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9404,7 +9410,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9430,7 +9436,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>43770</v>
       </c>
@@ -9450,7 +9456,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -9476,7 +9482,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9494,7 +9500,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23" t="s">
         <v>273</v>
       </c>
@@ -9512,7 +9518,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>43831</v>
       </c>
@@ -9532,7 +9538,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43862</v>
       </c>
@@ -9556,7 +9562,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>43891</v>
       </c>
@@ -9576,7 +9582,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>43922</v>
       </c>
@@ -9596,7 +9602,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>43952</v>
       </c>
@@ -9616,7 +9622,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43983</v>
       </c>
@@ -9636,7 +9642,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>44013</v>
       </c>
@@ -9656,7 +9662,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44044</v>
       </c>
@@ -9676,7 +9682,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>44075</v>
       </c>
@@ -9696,7 +9702,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44105</v>
       </c>
@@ -9716,7 +9722,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44136</v>
       </c>
@@ -9736,7 +9742,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44166</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>242</v>
@@ -9780,7 +9786,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23" t="s">
         <v>277</v>
       </c>
@@ -9800,7 +9806,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9820,7 +9826,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -9840,7 +9846,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -9860,7 +9866,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -9880,7 +9886,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -9900,7 +9906,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -9924,7 +9930,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -9968,7 +9974,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -9988,7 +9994,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -10008,7 +10014,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -10028,7 +10034,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>282</v>
       </c>
@@ -10072,7 +10078,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -10092,7 +10098,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -10112,7 +10118,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -10132,7 +10138,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -10152,7 +10158,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -10172,7 +10178,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -10192,7 +10198,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>174</v>
@@ -10216,7 +10222,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44743</v>
       </c>
@@ -10242,7 +10248,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>44774</v>
       </c>
@@ -10264,7 +10270,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>44805</v>
       </c>
@@ -10284,7 +10290,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>44835</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>44866</v>
       </c>
@@ -10330,7 +10336,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44896</v>
       </c>
@@ -10356,7 +10362,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10376,7 +10382,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="48" t="s">
         <v>287</v>
       </c>
@@ -10394,7 +10400,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>44927</v>
       </c>
@@ -10414,7 +10420,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>44958</v>
       </c>
@@ -10440,7 +10446,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>44986</v>
       </c>
@@ -10466,7 +10472,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>116</v>
@@ -10488,11 +10494,13 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>45017</v>
       </c>
-      <c r="B394" s="20"/>
+      <c r="B394" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39"/>
       <c r="E394" s="9"/>
@@ -10501,12 +10509,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H394" s="39"/>
+      <c r="H394" s="39">
+        <v>1</v>
+      </c>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
-      <c r="K394" s="20"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K394" s="49">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>45047</v>
       </c>
@@ -10524,7 +10536,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>45078</v>
       </c>
@@ -10542,7 +10554,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>45108</v>
       </c>
@@ -10560,7 +10572,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>45139</v>
       </c>
@@ -10578,7 +10590,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>45170</v>
       </c>
@@ -10596,7 +10608,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>45200</v>
       </c>
@@ -10614,7 +10626,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>45231</v>
       </c>
@@ -10632,7 +10644,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>45261</v>
       </c>
@@ -10650,7 +10662,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>45292</v>
       </c>
@@ -10668,7 +10680,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>45323</v>
       </c>
@@ -10686,7 +10698,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>45352</v>
       </c>
@@ -10704,7 +10716,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>45383</v>
       </c>
@@ -10722,7 +10734,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>45413</v>
       </c>
@@ -10740,7 +10752,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>45444</v>
       </c>
@@ -10758,7 +10770,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>45474</v>
       </c>
@@ -10776,7 +10788,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>45505</v>
       </c>
@@ -10794,7 +10806,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>45536</v>
       </c>
@@ -10812,7 +10824,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>45566</v>
       </c>
@@ -10830,7 +10842,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>45597</v>
       </c>
@@ -10848,7 +10860,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>45627</v>
       </c>
@@ -10866,7 +10878,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>45658</v>
       </c>
@@ -10884,7 +10896,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>45689</v>
       </c>
@@ -10902,7 +10914,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>45717</v>
       </c>
@@ -10920,7 +10932,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>45748</v>
       </c>
@@ -10938,7 +10950,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>45778</v>
       </c>
@@ -10956,7 +10968,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>45809</v>
       </c>
@@ -10974,7 +10986,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>45839</v>
       </c>
@@ -10992,7 +11004,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>45870</v>
       </c>
@@ -11010,7 +11022,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>45901</v>
       </c>
@@ -11028,7 +11040,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>45931</v>
       </c>
@@ -11046,7 +11058,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>45962</v>
       </c>
@@ -11064,7 +11076,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>45992</v>
       </c>
@@ -11082,7 +11094,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>46023</v>
       </c>
@@ -11100,7 +11112,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>46054</v>
       </c>
@@ -11118,7 +11130,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>46082</v>
       </c>
@@ -11136,7 +11148,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>46113</v>
       </c>
@@ -11154,7 +11166,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>46143</v>
       </c>
@@ -11172,7 +11184,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>46174</v>
       </c>
@@ -11190,7 +11202,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>46204</v>
       </c>
@@ -11208,7 +11220,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>46235</v>
       </c>
@@ -11226,7 +11238,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>46266</v>
       </c>
@@ -11244,7 +11256,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>46296</v>
       </c>
@@ -11262,7 +11274,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>46327</v>
       </c>
@@ -11280,7 +11292,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>46357</v>
       </c>
@@ -11298,7 +11310,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>46388</v>
       </c>
@@ -11316,7 +11328,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>46419</v>
       </c>
@@ -11334,7 +11346,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>46447</v>
       </c>
@@ -11352,7 +11364,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>46478</v>
       </c>
@@ -11370,7 +11382,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>46508</v>
       </c>
@@ -11388,7 +11400,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>46539</v>
       </c>
@@ -11406,7 +11418,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>46569</v>
       </c>
@@ -11424,7 +11436,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>46600</v>
       </c>
@@ -11442,7 +11454,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>46631</v>
       </c>
@@ -11460,7 +11472,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>46661</v>
       </c>
@@ -11478,7 +11490,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>46692</v>
       </c>
@@ -11496,7 +11508,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>46722</v>
       </c>
@@ -11514,7 +11526,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>46753</v>
       </c>
@@ -11532,7 +11544,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>46784</v>
       </c>
@@ -11550,7 +11562,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>46813</v>
       </c>
@@ -11568,7 +11580,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>46844</v>
       </c>
@@ -11586,7 +11598,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>46874</v>
       </c>
@@ -11604,7 +11616,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>46905</v>
       </c>
@@ -11622,7 +11634,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>46935</v>
       </c>
@@ -11640,7 +11652,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>46966</v>
       </c>
@@ -11658,7 +11670,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>46997</v>
       </c>
@@ -11676,7 +11688,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>47027</v>
       </c>
@@ -11694,7 +11706,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>47058</v>
       </c>
@@ -11712,7 +11724,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>47088</v>
       </c>
@@ -11730,7 +11742,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>47119</v>
       </c>
@@ -11748,7 +11760,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>47150</v>
       </c>
@@ -11766,7 +11778,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>47178</v>
       </c>
@@ -11784,7 +11796,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>47209</v>
       </c>
@@ -11802,7 +11814,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>47239</v>
       </c>
@@ -11820,7 +11832,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>47270</v>
       </c>
@@ -11838,7 +11850,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>47300</v>
       </c>
@@ -11856,7 +11868,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>47331</v>
       </c>
@@ -11874,7 +11886,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>47362</v>
       </c>
@@ -11892,7 +11904,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>47392</v>
       </c>
@@ -11910,7 +11922,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>47423</v>
       </c>
@@ -11928,7 +11940,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>47453</v>
       </c>
@@ -11946,7 +11958,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>47484</v>
       </c>
@@ -11964,7 +11976,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>47515</v>
       </c>
@@ -11982,7 +11994,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>47543</v>
       </c>
@@ -12000,7 +12012,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>47574</v>
       </c>
@@ -12018,7 +12030,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>47604</v>
       </c>
@@ -12036,7 +12048,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>47635</v>
       </c>
@@ -12054,7 +12066,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>47665</v>
       </c>
@@ -12072,7 +12084,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>47696</v>
       </c>
@@ -12090,7 +12102,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>47727</v>
       </c>
@@ -12108,7 +12120,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>47757</v>
       </c>
@@ -12126,7 +12138,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>47788</v>
       </c>
@@ -12144,7 +12156,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>47818</v>
       </c>
@@ -12162,7 +12174,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>47849</v>
       </c>
@@ -12180,7 +12192,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>47880</v>
       </c>
@@ -12198,7 +12210,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>47908</v>
       </c>
@@ -12216,7 +12228,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>47939</v>
       </c>
@@ -12234,7 +12246,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>47969</v>
       </c>
@@ -12252,7 +12264,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>48000</v>
       </c>
@@ -12270,7 +12282,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>48030</v>
       </c>
@@ -12288,7 +12300,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>48061</v>
       </c>
@@ -12306,7 +12318,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>48092</v>
       </c>
@@ -12324,7 +12336,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>48122</v>
       </c>
@@ -12342,7 +12354,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>48153</v>
       </c>
@@ -12360,7 +12372,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>48183</v>
       </c>
@@ -12378,7 +12390,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>48214</v>
       </c>
@@ -12396,7 +12408,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>48245</v>
       </c>
@@ -12414,7 +12426,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>48274</v>
       </c>
@@ -12432,7 +12444,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>48305</v>
       </c>
@@ -12450,7 +12462,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>48335</v>
       </c>
@@ -12468,7 +12480,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>48366</v>
       </c>
@@ -12486,7 +12498,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>48396</v>
       </c>
@@ -12504,7 +12516,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>48427</v>
       </c>
@@ -12522,7 +12534,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>48458</v>
       </c>
@@ -12540,7 +12552,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>48488</v>
       </c>
@@ -12558,7 +12570,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>48519</v>
       </c>
@@ -12576,7 +12588,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>48549</v>
       </c>
@@ -12594,7 +12606,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>48580</v>
       </c>
@@ -12612,7 +12624,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>48611</v>
       </c>
@@ -12630,7 +12642,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -12646,7 +12658,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12662,7 +12674,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12678,7 +12690,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12694,7 +12706,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -12710,7 +12722,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="41"/>
       <c r="B518" s="15"/>
       <c r="C518" s="42"/>
@@ -12741,10 +12753,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12767,28 +12779,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12801,7 +12813,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12830,7 +12842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12850,17 +12862,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12881,7 +12893,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12908,7 +12920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12934,7 +12946,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12960,7 +12972,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12986,7 +12998,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13012,7 +13024,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13038,7 +13050,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13064,7 +13076,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13090,7 +13102,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13110,7 +13122,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13130,7 +13142,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13150,7 +13162,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13171,7 +13183,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13192,7 +13204,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13213,7 +13225,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13234,7 +13246,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13255,7 +13267,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13276,7 +13288,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13297,7 +13309,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13318,7 +13330,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13339,7 +13351,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13360,7 +13372,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13381,7 +13393,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13402,7 +13414,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13423,7 +13435,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13444,7 +13456,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13465,7 +13477,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13486,7 +13498,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13507,7 +13519,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13528,7 +13540,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13549,7 +13561,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13570,7 +13582,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13579,7 +13591,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13588,7 +13600,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13597,7 +13609,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13606,7 +13618,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13615,7 +13627,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13624,7 +13636,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13633,7 +13645,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13642,7 +13654,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13651,7 +13663,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13660,7 +13672,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13669,7 +13681,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13678,7 +13690,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13687,7 +13699,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13696,7 +13708,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13705,7 +13717,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13714,7 +13726,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13723,7 +13735,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13732,7 +13744,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13741,7 +13753,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13750,7 +13762,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13759,7 +13771,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13768,7 +13780,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13777,7 +13789,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13786,7 +13798,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13795,7 +13807,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13804,7 +13816,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13813,7 +13825,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13822,7 +13834,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13831,7 +13843,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BANICO, PILAR.xlsx
+++ b/REGULAR/BANICO, PILAR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF525924-A11D-409A-9847-611B6B10C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1022,11 +1021,17 @@
   <si>
     <t>ADMIN AIDE I</t>
   </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>5/13-16,19/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1724,25 +1729,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2049,34 +2054,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K518"/>
+  <dimension ref="A2:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A379"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
+      <pane ySplit="3690" topLeftCell="A379" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2102,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2119,7 +2124,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2130,7 +2135,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -2139,7 +2146,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2147,7 +2154,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2160,7 +2167,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2177,7 +2184,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2221,7 +2228,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>175.87099999999995</v>
+        <v>172.12099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2231,12 +2238,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>240.05599999999998</v>
+        <v>241.30599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2258,7 +2265,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36312</v>
       </c>
@@ -2276,7 +2283,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36342</v>
       </c>
@@ -2296,7 +2303,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36373</v>
       </c>
@@ -2316,7 +2323,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2336,7 +2343,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36434</v>
       </c>
@@ -2356,7 +2363,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>36465</v>
       </c>
@@ -2376,7 +2383,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36495</v>
       </c>
@@ -2400,7 +2407,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>46</v>
       </c>
@@ -2418,7 +2425,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43831</v>
       </c>
@@ -2438,7 +2445,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -2458,7 +2465,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43922</v>
       </c>
@@ -2504,7 +2511,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43952</v>
       </c>
@@ -2524,7 +2531,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -2548,7 +2555,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -2568,7 +2575,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -2588,7 +2595,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -2608,7 +2615,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -2628,7 +2635,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -2652,7 +2659,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -2676,7 +2683,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -2694,7 +2701,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>37013</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -2766,7 +2773,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -2790,7 +2797,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37012</v>
       </c>
@@ -2810,7 +2817,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37043</v>
       </c>
@@ -2830,7 +2837,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37073</v>
       </c>
@@ -2850,7 +2857,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37104</v>
       </c>
@@ -2870,7 +2877,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37135</v>
       </c>
@@ -2890,7 +2897,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37165</v>
       </c>
@@ -2910,7 +2917,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37196</v>
       </c>
@@ -2936,7 +2943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -2960,7 +2967,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>60</v>
       </c>
@@ -2978,7 +2985,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -3000,7 +3007,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37288</v>
       </c>
@@ -3024,7 +3031,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37316</v>
       </c>
@@ -3044,7 +3051,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37347</v>
       </c>
@@ -3064,7 +3071,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37377</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3108,7 +3115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37408</v>
       </c>
@@ -3128,7 +3135,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37438</v>
       </c>
@@ -3148,7 +3155,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37469</v>
       </c>
@@ -3168,7 +3175,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37500</v>
       </c>
@@ -3188,7 +3195,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37530</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3230,7 +3237,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37561</v>
       </c>
@@ -3254,7 +3261,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3272,7 +3279,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37591</v>
       </c>
@@ -3294,7 +3301,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>71</v>
       </c>
@@ -3312,7 +3319,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37622</v>
       </c>
@@ -3332,7 +3339,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37653</v>
       </c>
@@ -3352,7 +3359,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37681</v>
       </c>
@@ -3374,7 +3381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37712</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -3418,7 +3425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37742</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37773</v>
       </c>
@@ -3460,7 +3467,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37803</v>
       </c>
@@ -3480,7 +3487,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37834</v>
       </c>
@@ -3500,7 +3507,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37865</v>
       </c>
@@ -3520,7 +3527,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37895</v>
       </c>
@@ -3540,7 +3547,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37926</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -3582,7 +3589,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37956</v>
       </c>
@@ -3602,7 +3609,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>79</v>
       </c>
@@ -3620,7 +3627,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37987</v>
       </c>
@@ -3640,7 +3647,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>38018</v>
       </c>
@@ -3660,7 +3667,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38047</v>
       </c>
@@ -3680,7 +3687,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38078</v>
       </c>
@@ -3700,7 +3707,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38108</v>
       </c>
@@ -3719,7 +3726,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3739,7 +3746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38139</v>
       </c>
@@ -3759,7 +3766,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38169</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3801,7 +3808,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38200</v>
       </c>
@@ -3821,7 +3828,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38231</v>
       </c>
@@ -3841,7 +3848,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38261</v>
       </c>
@@ -3861,7 +3868,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38292</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3905,7 +3912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>86</v>
@@ -3927,7 +3934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38322</v>
       </c>
@@ -3951,7 +3958,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3967,7 +3974,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>90</v>
       </c>
@@ -3985,7 +3992,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38353</v>
       </c>
@@ -4005,7 +4012,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38384</v>
       </c>
@@ -4025,7 +4032,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38412</v>
       </c>
@@ -4045,7 +4052,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38443</v>
       </c>
@@ -4065,7 +4072,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38473</v>
       </c>
@@ -4089,7 +4096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>95</v>
@@ -4111,7 +4118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4129,7 +4136,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -4155,7 +4162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -4175,7 +4182,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -4199,7 +4206,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -4219,7 +4226,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -4239,7 +4246,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -4265,7 +4272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>101</v>
@@ -4287,7 +4294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38687</v>
       </c>
@@ -4307,7 +4314,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4323,7 +4330,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>103</v>
       </c>
@@ -4341,7 +4348,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38718</v>
       </c>
@@ -4361,7 +4368,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38749</v>
       </c>
@@ -4381,7 +4388,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38777</v>
       </c>
@@ -4401,7 +4408,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38808</v>
       </c>
@@ -4421,7 +4428,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38838</v>
       </c>
@@ -4445,7 +4452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38869</v>
       </c>
@@ -4465,7 +4472,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38899</v>
       </c>
@@ -4485,7 +4492,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38930</v>
       </c>
@@ -4505,7 +4512,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38961</v>
       </c>
@@ -4525,7 +4532,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38991</v>
       </c>
@@ -4545,7 +4552,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39022</v>
       </c>
@@ -4565,7 +4572,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39052</v>
       </c>
@@ -4585,7 +4592,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>106</v>
       </c>
@@ -4603,7 +4610,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39083</v>
       </c>
@@ -4623,7 +4630,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39114</v>
       </c>
@@ -4643,7 +4650,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39142</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>108</v>
@@ -4687,7 +4694,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39173</v>
       </c>
@@ -4707,7 +4714,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39203</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>39234</v>
       </c>
@@ -4753,7 +4760,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39264</v>
       </c>
@@ -4773,7 +4780,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39295</v>
       </c>
@@ -4793,7 +4800,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39326</v>
       </c>
@@ -4813,7 +4820,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39356</v>
       </c>
@@ -4833,7 +4840,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39387</v>
       </c>
@@ -4853,7 +4860,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39417</v>
       </c>
@@ -4873,7 +4880,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
         <v>111</v>
       </c>
@@ -4891,7 +4898,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39448</v>
       </c>
@@ -4911,7 +4918,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39479</v>
       </c>
@@ -4931,7 +4938,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39508</v>
       </c>
@@ -4951,7 +4958,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39539</v>
       </c>
@@ -4971,7 +4978,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39569</v>
       </c>
@@ -4995,7 +5002,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39600</v>
       </c>
@@ -5015,7 +5022,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39630</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>85</v>
@@ -5061,7 +5068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39661</v>
       </c>
@@ -5081,7 +5088,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39692</v>
       </c>
@@ -5105,7 +5112,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39722</v>
       </c>
@@ -5125,7 +5132,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39753</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39783</v>
       </c>
@@ -5175,7 +5182,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>118</v>
       </c>
@@ -5193,7 +5200,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39814</v>
       </c>
@@ -5213,7 +5220,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39845</v>
       </c>
@@ -5233,7 +5240,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39873</v>
       </c>
@@ -5253,7 +5260,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39904</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39934</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39965</v>
       </c>
@@ -5325,7 +5332,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -5345,7 +5352,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40026</v>
       </c>
@@ -5365,7 +5372,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40057</v>
       </c>
@@ -5385,7 +5392,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40087</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40118</v>
       </c>
@@ -5433,7 +5440,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40148</v>
       </c>
@@ -5459,7 +5466,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
         <v>130</v>
       </c>
@@ -5477,7 +5484,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40179</v>
       </c>
@@ -5503,7 +5510,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40210</v>
       </c>
@@ -5523,7 +5530,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40238</v>
       </c>
@@ -5543,7 +5550,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40269</v>
       </c>
@@ -5563,7 +5570,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40299</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40330</v>
       </c>
@@ -5609,7 +5616,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40360</v>
       </c>
@@ -5629,7 +5636,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40391</v>
       </c>
@@ -5653,7 +5660,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
         <v>40422</v>
       </c>
@@ -5677,7 +5684,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40452</v>
       </c>
@@ -5701,7 +5708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>126</v>
@@ -5725,7 +5732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>128</v>
@@ -5745,7 +5752,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40492</v>
       </c>
@@ -5769,7 +5776,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40513</v>
       </c>
@@ -5789,7 +5796,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>137</v>
       </c>
@@ -5807,7 +5814,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40544</v>
       </c>
@@ -5827,7 +5834,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40575</v>
       </c>
@@ -5847,7 +5854,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40603</v>
       </c>
@@ -5867,7 +5874,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40634</v>
       </c>
@@ -5887,7 +5894,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40664</v>
       </c>
@@ -5913,7 +5920,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40695</v>
       </c>
@@ -5937,7 +5944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>104</v>
@@ -5961,7 +5968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40725</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>40756</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>124</v>
@@ -6035,7 +6042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40825</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40817</v>
       </c>
@@ -6081,7 +6088,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40848</v>
       </c>
@@ -6107,7 +6114,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40878</v>
       </c>
@@ -6131,7 +6138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>144</v>
@@ -6153,7 +6160,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>146</v>
       </c>
@@ -6171,7 +6178,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40909</v>
       </c>
@@ -6195,7 +6202,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40940</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>148</v>
@@ -6241,7 +6248,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40969</v>
       </c>
@@ -6262,7 +6269,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>151</v>
@@ -6283,7 +6290,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41000</v>
       </c>
@@ -6303,7 +6310,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>153</v>
@@ -6323,7 +6330,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41030</v>
       </c>
@@ -6347,7 +6354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>154</v>
@@ -6367,7 +6374,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>155</v>
@@ -6389,7 +6396,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -6411,7 +6418,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>156</v>
@@ -6431,7 +6438,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41061</v>
       </c>
@@ -6451,7 +6458,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41091</v>
       </c>
@@ -6471,7 +6478,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41122</v>
       </c>
@@ -6491,7 +6498,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41153</v>
       </c>
@@ -6513,7 +6520,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>116</v>
@@ -6535,7 +6542,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41183</v>
       </c>
@@ -6557,7 +6564,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>93</v>
@@ -6581,7 +6588,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6597,7 +6604,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41214</v>
       </c>
@@ -6621,7 +6628,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>116</v>
@@ -6645,7 +6652,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41244</v>
       </c>
@@ -6671,7 +6678,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>166</v>
       </c>
@@ -6689,7 +6696,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41275</v>
       </c>
@@ -6715,7 +6722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41306</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>116</v>
@@ -6761,7 +6768,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41334</v>
       </c>
@@ -6787,7 +6794,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41365</v>
       </c>
@@ -6806,7 +6813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -6830,7 +6837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41395</v>
       </c>
@@ -6854,7 +6861,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>174</v>
@@ -6878,7 +6885,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41426</v>
       </c>
@@ -6898,7 +6905,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41456</v>
       </c>
@@ -6922,7 +6929,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41487</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -6968,7 +6975,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41518</v>
       </c>
@@ -6988,7 +6995,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>180</v>
@@ -7014,7 +7021,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -7038,7 +7045,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>174</v>
@@ -7062,7 +7069,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>182</v>
@@ -7084,7 +7091,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41579</v>
       </c>
@@ -7108,7 +7115,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41609</v>
       </c>
@@ -7132,7 +7139,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>185</v>
@@ -7154,7 +7161,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7170,7 +7177,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>187</v>
       </c>
@@ -7188,7 +7195,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41640</v>
       </c>
@@ -7210,7 +7217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>107</v>
@@ -7230,7 +7237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>188</v>
@@ -7250,7 +7257,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41671</v>
       </c>
@@ -7272,7 +7279,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41699</v>
       </c>
@@ -7294,7 +7301,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41730</v>
       </c>
@@ -7322,7 +7329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>193</v>
@@ -7340,7 +7347,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41760</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>174</v>
@@ -7386,7 +7393,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>196</v>
@@ -7408,7 +7415,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41791</v>
       </c>
@@ -7428,7 +7435,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41821</v>
       </c>
@@ -7454,7 +7461,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41852</v>
       </c>
@@ -7476,7 +7483,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>174</v>
@@ -7498,7 +7505,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -7522,7 +7529,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>200</v>
@@ -7544,7 +7551,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41913</v>
       </c>
@@ -7568,7 +7575,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41944</v>
       </c>
@@ -7594,7 +7601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>204</v>
@@ -7616,7 +7623,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40" t="s">
         <v>206</v>
       </c>
@@ -7640,7 +7647,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
         <v>208</v>
       </c>
@@ -7658,7 +7665,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42005</v>
       </c>
@@ -7682,7 +7689,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42036</v>
       </c>
@@ -7704,7 +7711,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7726,7 +7733,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42064</v>
       </c>
@@ -7748,7 +7755,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42095</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>210</v>
@@ -7792,7 +7799,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>214</v>
@@ -7814,7 +7821,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>215</v>
@@ -7836,7 +7843,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>42125</v>
       </c>
@@ -7860,7 +7867,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -7880,7 +7887,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42156</v>
       </c>
@@ -7902,7 +7909,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -7926,7 +7933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>174</v>
@@ -7944,7 +7951,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>223</v>
@@ -7966,7 +7973,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42217</v>
       </c>
@@ -7990,7 +7997,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42248</v>
       </c>
@@ -8014,7 +8021,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42278</v>
       </c>
@@ -8038,7 +8045,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42309</v>
       </c>
@@ -8062,7 +8069,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>229</v>
@@ -8082,7 +8089,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42339</v>
       </c>
@@ -8106,7 +8113,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="48" t="s">
         <v>231</v>
       </c>
@@ -8124,7 +8131,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42370</v>
       </c>
@@ -8146,7 +8153,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>174</v>
@@ -8168,7 +8175,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>232</v>
@@ -8192,7 +8199,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42401</v>
       </c>
@@ -8216,7 +8223,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42430</v>
       </c>
@@ -8236,7 +8243,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42461</v>
       </c>
@@ -8256,7 +8263,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42491</v>
       </c>
@@ -8280,7 +8287,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -8304,7 +8311,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42552</v>
       </c>
@@ -8328,7 +8335,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42583</v>
       </c>
@@ -8352,7 +8359,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42614</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -8400,7 +8407,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42644</v>
       </c>
@@ -8420,7 +8427,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>213</v>
@@ -8444,7 +8451,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8466,7 +8473,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42675</v>
       </c>
@@ -8490,7 +8497,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42705</v>
       </c>
@@ -8514,7 +8521,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>249</v>
@@ -8536,7 +8543,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
         <v>251</v>
       </c>
@@ -8554,7 +8561,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42736</v>
       </c>
@@ -8578,7 +8585,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>252</v>
@@ -8598,7 +8605,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>253</v>
@@ -8618,7 +8625,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40" t="s">
         <v>255</v>
       </c>
@@ -8638,7 +8645,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42795</v>
       </c>
@@ -8658,7 +8665,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42826</v>
       </c>
@@ -8678,7 +8685,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42856</v>
       </c>
@@ -8698,7 +8705,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42887</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42917</v>
       </c>
@@ -8744,7 +8751,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42948</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42979</v>
       </c>
@@ -8790,7 +8797,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>210</v>
@@ -8812,7 +8819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>181</v>
@@ -8832,7 +8839,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -8852,7 +8859,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -8872,7 +8879,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -8896,7 +8903,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>259</v>
@@ -8918,7 +8925,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="48" t="s">
         <v>261</v>
       </c>
@@ -8936,7 +8943,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -9008,7 +9015,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -9028,7 +9035,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43221</v>
       </c>
@@ -9048,7 +9055,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -9068,7 +9075,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -9088,7 +9095,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43344</v>
       </c>
@@ -9108,7 +9115,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43374</v>
       </c>
@@ -9128,7 +9135,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43405</v>
       </c>
@@ -9148,7 +9155,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9196,7 +9203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>266</v>
       </c>
@@ -9214,7 +9221,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43466</v>
       </c>
@@ -9240,7 +9247,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43497</v>
       </c>
@@ -9260,7 +9267,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43525</v>
       </c>
@@ -9280,7 +9287,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9304,7 +9311,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9324,7 +9331,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9344,7 +9351,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43647</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43678</v>
       </c>
@@ -9390,7 +9397,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9410,7 +9417,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9436,7 +9443,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43770</v>
       </c>
@@ -9456,7 +9463,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -9482,7 +9489,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9500,7 +9507,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23" t="s">
         <v>273</v>
       </c>
@@ -9518,7 +9525,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43831</v>
       </c>
@@ -9538,7 +9545,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43862</v>
       </c>
@@ -9562,7 +9569,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43891</v>
       </c>
@@ -9582,7 +9589,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43922</v>
       </c>
@@ -9602,7 +9609,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43952</v>
       </c>
@@ -9622,7 +9629,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43983</v>
       </c>
@@ -9642,7 +9649,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44013</v>
       </c>
@@ -9662,7 +9669,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44044</v>
       </c>
@@ -9682,7 +9689,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44075</v>
       </c>
@@ -9702,7 +9709,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44105</v>
       </c>
@@ -9722,7 +9729,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44136</v>
       </c>
@@ -9742,7 +9749,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44166</v>
       </c>
@@ -9766,7 +9773,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>242</v>
@@ -9786,7 +9793,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23" t="s">
         <v>277</v>
       </c>
@@ -9806,7 +9813,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9826,7 +9833,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -9846,7 +9853,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -9866,7 +9873,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -9886,7 +9893,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -9906,7 +9913,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -9930,7 +9937,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -9954,7 +9961,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -9974,7 +9981,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -9994,7 +10001,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -10014,7 +10021,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -10034,7 +10041,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -10060,7 +10067,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>282</v>
       </c>
@@ -10078,7 +10085,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -10098,7 +10105,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -10118,7 +10125,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -10138,7 +10145,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -10158,7 +10165,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -10178,7 +10185,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -10198,7 +10205,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>174</v>
@@ -10222,7 +10229,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44743</v>
       </c>
@@ -10248,7 +10255,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44774</v>
       </c>
@@ -10270,7 +10277,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44805</v>
       </c>
@@ -10290,7 +10297,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44835</v>
       </c>
@@ -10316,7 +10323,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44866</v>
       </c>
@@ -10336,7 +10343,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44896</v>
       </c>
@@ -10362,7 +10369,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10382,7 +10389,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>287</v>
       </c>
@@ -10400,7 +10407,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44927</v>
       </c>
@@ -10420,7 +10427,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44958</v>
       </c>
@@ -10446,7 +10453,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44986</v>
       </c>
@@ -10472,7 +10479,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>116</v>
@@ -10494,20 +10501,22 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45017</v>
       </c>
       <c r="B394" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C394" s="13"/>
+      <c r="C394" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D394" s="39"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H394" s="39">
         <v>1</v>
@@ -10518,11 +10527,13 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45047</v>
       </c>
-      <c r="B395" s="20"/>
+      <c r="B395" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
       <c r="E395" s="9"/>
@@ -10534,15 +10545,19 @@
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
-      <c r="K395" s="20"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B396" s="20"/>
+      <c r="K395" s="49">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="40"/>
+      <c r="B396" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C396" s="13"/>
-      <c r="D396" s="39"/>
+      <c r="D396" s="39">
+        <v>5</v>
+      </c>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
       <c r="G396" s="13" t="str">
@@ -10552,11 +10567,13 @@
       <c r="H396" s="39"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="20"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K396" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10572,9 +10589,9 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10590,9 +10607,9 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10608,9 +10625,9 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10626,9 +10643,9 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10644,9 +10661,9 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10662,9 +10679,9 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10680,9 +10697,9 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10698,9 +10715,9 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10716,9 +10733,9 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10734,9 +10751,9 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10752,9 +10769,9 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10770,9 +10787,9 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10788,9 +10805,9 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10806,9 +10823,9 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10824,9 +10841,9 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10842,9 +10859,9 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10860,9 +10877,9 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10878,9 +10895,9 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10896,9 +10913,9 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10914,9 +10931,9 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10932,9 +10949,9 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10950,9 +10967,9 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10968,9 +10985,9 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10986,9 +11003,9 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11004,9 +11021,9 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11022,9 +11039,9 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11040,9 +11057,9 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11058,9 +11075,9 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11076,9 +11093,9 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11094,9 +11111,9 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11112,9 +11129,9 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11130,9 +11147,9 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11148,9 +11165,9 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11166,9 +11183,9 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11184,9 +11201,9 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11202,9 +11219,9 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11220,9 +11237,9 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11238,9 +11255,9 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11256,9 +11273,9 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11274,9 +11291,9 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11292,9 +11309,9 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11310,9 +11327,9 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11328,9 +11345,9 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11346,9 +11363,9 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11364,9 +11381,9 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11382,9 +11399,9 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11400,9 +11417,9 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11418,9 +11435,9 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11436,9 +11453,9 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11454,9 +11471,9 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11472,9 +11489,9 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11490,9 +11507,9 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11508,9 +11525,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11526,9 +11543,9 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11544,9 +11561,9 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11562,9 +11579,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11580,9 +11597,9 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11598,9 +11615,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11616,9 +11633,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11634,9 +11651,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11652,9 +11669,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11670,9 +11687,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11688,9 +11705,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11706,9 +11723,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11724,9 +11741,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11742,9 +11759,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11760,9 +11777,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11778,9 +11795,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -11796,9 +11813,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -11814,9 +11831,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -11832,9 +11849,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -11850,9 +11867,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -11868,9 +11885,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -11886,9 +11903,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -11904,9 +11921,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -11922,9 +11939,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -11940,9 +11957,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -11958,9 +11975,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -11976,9 +11993,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -11994,9 +12011,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12012,9 +12029,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12030,9 +12047,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12048,9 +12065,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12066,9 +12083,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12084,9 +12101,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12102,9 +12119,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12120,9 +12137,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12138,9 +12155,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12156,9 +12173,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12174,9 +12191,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12192,9 +12209,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12210,9 +12227,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12228,9 +12245,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12246,9 +12263,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12264,9 +12281,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12282,9 +12299,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12300,9 +12317,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12318,9 +12335,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12336,9 +12353,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12354,9 +12371,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12372,9 +12389,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12390,9 +12407,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12408,9 +12425,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12426,9 +12443,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12444,9 +12461,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12462,9 +12479,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12480,9 +12497,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -12498,9 +12515,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -12516,9 +12533,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -12534,9 +12551,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -12552,9 +12569,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -12570,9 +12587,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -12588,9 +12605,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -12606,9 +12623,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -12624,9 +12641,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -12642,8 +12659,10 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A513" s="40"/>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="40">
+        <v>48611</v>
+      </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
       <c r="D513" s="39"/>
@@ -12658,7 +12677,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12674,7 +12693,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12690,7 +12709,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12706,7 +12725,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -12722,21 +12741,37 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="41"/>
-      <c r="B518" s="15"/>
-      <c r="C518" s="42"/>
-      <c r="D518" s="43"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="40"/>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
       <c r="E518" s="9"/>
-      <c r="F518" s="15"/>
+      <c r="F518" s="20"/>
       <c r="G518" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H518" s="43"/>
+      <c r="H518" s="39"/>
       <c r="I518" s="9"/>
-      <c r="J518" s="12"/>
-      <c r="K518" s="15"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="41"/>
+      <c r="B519" s="15"/>
+      <c r="C519" s="42"/>
+      <c r="D519" s="43"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="15"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="43"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="12"/>
+      <c r="K519" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12753,10 +12788,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12779,28 +12814,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12813,7 +12848,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12842,7 +12877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12862,17 +12897,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12893,7 +12928,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12920,7 +12955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12946,7 +12981,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12972,7 +13007,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12998,7 +13033,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13024,7 +13059,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13050,7 +13085,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13076,7 +13111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13102,7 +13137,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13122,7 +13157,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13142,7 +13177,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13162,7 +13197,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13183,7 +13218,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13204,7 +13239,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13225,7 +13260,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13246,7 +13281,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13267,7 +13302,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13288,7 +13323,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13309,7 +13344,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13330,7 +13365,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13351,7 +13386,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13372,7 +13407,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13393,7 +13428,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13414,7 +13449,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13435,7 +13470,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13456,7 +13491,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13477,7 +13512,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13498,7 +13533,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13519,7 +13554,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13540,7 +13575,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13561,7 +13596,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13582,7 +13617,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13591,7 +13626,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13600,7 +13635,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13609,7 +13644,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13618,7 +13653,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13627,7 +13662,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13636,7 +13671,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13645,7 +13680,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13654,7 +13689,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13663,7 +13698,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13672,7 +13707,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13681,7 +13716,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13690,7 +13725,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13699,7 +13734,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13708,7 +13743,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13717,7 +13752,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13726,7 +13761,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13735,7 +13770,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13744,7 +13779,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13753,7 +13788,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13762,7 +13797,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13771,7 +13806,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13780,7 +13815,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13789,7 +13824,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13798,7 +13833,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13807,7 +13842,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13816,7 +13851,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13825,7 +13860,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13834,7 +13869,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13843,7 +13878,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BANICO, PILAR.xlsx
+++ b/REGULAR/BANICO, PILAR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C13553D-98B8-422A-A6C8-BF7F5E96C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1031,7 +1032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1712,7 +1713,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1729,25 +1730,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2054,34 +2055,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A379" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A388" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D397" sqref="D397"/>
+      <selection pane="bottomLeft" activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2102,7 +2103,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2125,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2146,7 +2147,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2154,7 +2155,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2167,7 +2168,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2184,7 +2185,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2228,7 +2229,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>172.12099999999995</v>
+        <v>173.37099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2238,12 +2239,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241.30599999999998</v>
+        <v>241.55599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36312</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36342</v>
       </c>
@@ -2303,7 +2304,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36373</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2343,7 +2344,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36434</v>
       </c>
@@ -2363,7 +2364,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>36465</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36495</v>
       </c>
@@ -2407,7 +2408,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>46</v>
       </c>
@@ -2425,7 +2426,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43831</v>
       </c>
@@ -2445,7 +2446,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -2465,7 +2466,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43922</v>
       </c>
@@ -2511,7 +2512,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43952</v>
       </c>
@@ -2531,7 +2532,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -2555,7 +2556,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -2575,7 +2576,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -2595,7 +2596,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -2615,7 +2616,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -2635,7 +2636,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -2659,7 +2660,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -2683,7 +2684,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -2701,7 +2702,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>37013</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -2797,7 +2798,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>37012</v>
       </c>
@@ -2817,7 +2818,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>37043</v>
       </c>
@@ -2837,7 +2838,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37073</v>
       </c>
@@ -2857,7 +2858,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37104</v>
       </c>
@@ -2877,7 +2878,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>37135</v>
       </c>
@@ -2897,7 +2898,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37165</v>
       </c>
@@ -2917,7 +2918,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>37196</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -2967,7 +2968,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>60</v>
       </c>
@@ -2985,7 +2986,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -3007,7 +3008,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37288</v>
       </c>
@@ -3031,7 +3032,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>37316</v>
       </c>
@@ -3051,7 +3052,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37347</v>
       </c>
@@ -3071,7 +3072,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37377</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3115,7 +3116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37408</v>
       </c>
@@ -3135,7 +3136,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37438</v>
       </c>
@@ -3155,7 +3156,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37469</v>
       </c>
@@ -3175,7 +3176,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37500</v>
       </c>
@@ -3195,7 +3196,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37530</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3237,7 +3238,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37561</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3279,7 +3280,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37591</v>
       </c>
@@ -3301,7 +3302,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>71</v>
       </c>
@@ -3319,7 +3320,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37622</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37653</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37681</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37712</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -3425,7 +3426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37742</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37773</v>
       </c>
@@ -3467,7 +3468,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37803</v>
       </c>
@@ -3487,7 +3488,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37834</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37865</v>
       </c>
@@ -3527,7 +3528,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37895</v>
       </c>
@@ -3547,7 +3548,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37926</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -3589,7 +3590,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37956</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>79</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37987</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>38018</v>
       </c>
@@ -3667,7 +3668,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>38047</v>
       </c>
@@ -3687,7 +3688,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>38078</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>38108</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3746,7 +3747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>38139</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>38169</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3808,7 +3809,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38200</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38231</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>38261</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38292</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3912,7 +3913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>86</v>
@@ -3934,7 +3935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38322</v>
       </c>
@@ -3958,7 +3959,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3974,7 +3975,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>90</v>
       </c>
@@ -3992,7 +3993,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38353</v>
       </c>
@@ -4012,7 +4013,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>38384</v>
       </c>
@@ -4032,7 +4033,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38412</v>
       </c>
@@ -4052,7 +4053,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>38443</v>
       </c>
@@ -4072,7 +4073,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38473</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>95</v>
@@ -4118,7 +4119,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4136,7 +4137,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -4226,7 +4227,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -4246,7 +4247,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>101</v>
@@ -4294,7 +4295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38687</v>
       </c>
@@ -4314,7 +4315,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4330,7 +4331,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4349,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>38718</v>
       </c>
@@ -4368,7 +4369,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38749</v>
       </c>
@@ -4388,7 +4389,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38777</v>
       </c>
@@ -4408,7 +4409,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38808</v>
       </c>
@@ -4428,7 +4429,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38838</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38869</v>
       </c>
@@ -4472,7 +4473,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38899</v>
       </c>
@@ -4492,7 +4493,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38930</v>
       </c>
@@ -4512,7 +4513,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38961</v>
       </c>
@@ -4532,7 +4533,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38991</v>
       </c>
@@ -4552,7 +4553,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>39022</v>
       </c>
@@ -4572,7 +4573,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39052</v>
       </c>
@@ -4592,7 +4593,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>106</v>
       </c>
@@ -4610,7 +4611,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>39083</v>
       </c>
@@ -4630,7 +4631,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39114</v>
       </c>
@@ -4650,7 +4651,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39142</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>108</v>
@@ -4694,7 +4695,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39173</v>
       </c>
@@ -4714,7 +4715,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>39203</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
         <v>39234</v>
       </c>
@@ -4760,7 +4761,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>39264</v>
       </c>
@@ -4780,7 +4781,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>39295</v>
       </c>
@@ -4800,7 +4801,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>39326</v>
       </c>
@@ -4820,7 +4821,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>39356</v>
       </c>
@@ -4840,7 +4841,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>39387</v>
       </c>
@@ -4860,7 +4861,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39417</v>
       </c>
@@ -4880,7 +4881,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="s">
         <v>111</v>
       </c>
@@ -4898,7 +4899,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>39448</v>
       </c>
@@ -4918,7 +4919,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39479</v>
       </c>
@@ -4938,7 +4939,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39508</v>
       </c>
@@ -4958,7 +4959,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39539</v>
       </c>
@@ -4978,7 +4979,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39569</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39600</v>
       </c>
@@ -5022,7 +5023,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39630</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>85</v>
@@ -5068,7 +5069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>39661</v>
       </c>
@@ -5088,7 +5089,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>39692</v>
       </c>
@@ -5112,7 +5113,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>39722</v>
       </c>
@@ -5132,7 +5133,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39753</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39783</v>
       </c>
@@ -5182,7 +5183,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
         <v>118</v>
       </c>
@@ -5200,7 +5201,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39814</v>
       </c>
@@ -5220,7 +5221,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39845</v>
       </c>
@@ -5240,7 +5241,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>39873</v>
       </c>
@@ -5260,7 +5261,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>39904</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39934</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39965</v>
       </c>
@@ -5332,7 +5333,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -5352,7 +5353,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40026</v>
       </c>
@@ -5372,7 +5373,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40057</v>
       </c>
@@ -5392,7 +5393,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40087</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>40118</v>
       </c>
@@ -5440,7 +5441,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40148</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23" t="s">
         <v>130</v>
       </c>
@@ -5484,7 +5485,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>40179</v>
       </c>
@@ -5510,7 +5511,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40210</v>
       </c>
@@ -5530,7 +5531,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>40238</v>
       </c>
@@ -5550,7 +5551,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>40269</v>
       </c>
@@ -5570,7 +5571,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>40299</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>40330</v>
       </c>
@@ -5616,7 +5617,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>40360</v>
       </c>
@@ -5636,7 +5637,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40391</v>
       </c>
@@ -5660,7 +5661,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41">
         <v>40422</v>
       </c>
@@ -5684,7 +5685,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>40452</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>126</v>
@@ -5732,7 +5733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>128</v>
@@ -5752,7 +5753,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>40492</v>
       </c>
@@ -5776,7 +5777,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40513</v>
       </c>
@@ -5796,7 +5797,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23" t="s">
         <v>137</v>
       </c>
@@ -5814,7 +5815,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40544</v>
       </c>
@@ -5834,7 +5835,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40575</v>
       </c>
@@ -5854,7 +5855,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40603</v>
       </c>
@@ -5874,7 +5875,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40634</v>
       </c>
@@ -5894,7 +5895,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40664</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40695</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>104</v>
@@ -5968,7 +5969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40725</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41">
         <v>40756</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>124</v>
@@ -6042,7 +6043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40825</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>40817</v>
       </c>
@@ -6088,7 +6089,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40848</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40878</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>144</v>
@@ -6160,7 +6161,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23" t="s">
         <v>146</v>
       </c>
@@ -6178,7 +6179,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>40909</v>
       </c>
@@ -6202,7 +6203,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>40940</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>148</v>
@@ -6248,7 +6249,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40969</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>151</v>
@@ -6290,7 +6291,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41000</v>
       </c>
@@ -6310,7 +6311,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>153</v>
@@ -6330,7 +6331,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41030</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>154</v>
@@ -6374,7 +6375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>155</v>
@@ -6396,7 +6397,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -6418,7 +6419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>156</v>
@@ -6438,7 +6439,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>41061</v>
       </c>
@@ -6458,7 +6459,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>41091</v>
       </c>
@@ -6478,7 +6479,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41122</v>
       </c>
@@ -6498,7 +6499,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41153</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>116</v>
@@ -6542,7 +6543,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41183</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>93</v>
@@ -6588,7 +6589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6604,7 +6605,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41214</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>116</v>
@@ -6652,7 +6653,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41244</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23" t="s">
         <v>166</v>
       </c>
@@ -6696,7 +6697,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>41275</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>41306</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>116</v>
@@ -6768,7 +6769,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>41334</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41365</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -6837,7 +6838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>41395</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>174</v>
@@ -6885,7 +6886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>41426</v>
       </c>
@@ -6905,7 +6906,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>41456</v>
       </c>
@@ -6929,7 +6930,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>41487</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -6975,7 +6976,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>41518</v>
       </c>
@@ -6995,7 +6996,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>180</v>
@@ -7021,7 +7022,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>174</v>
@@ -7069,7 +7070,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>182</v>
@@ -7091,7 +7092,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>41579</v>
       </c>
@@ -7115,7 +7116,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>41609</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>185</v>
@@ -7161,7 +7162,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7177,7 +7178,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23" t="s">
         <v>187</v>
       </c>
@@ -7195,7 +7196,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>41640</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>107</v>
@@ -7237,7 +7238,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>188</v>
@@ -7257,7 +7258,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41671</v>
       </c>
@@ -7279,7 +7280,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>41699</v>
       </c>
@@ -7301,7 +7302,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>41730</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>193</v>
@@ -7347,7 +7348,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>41760</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>174</v>
@@ -7393,7 +7394,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>196</v>
@@ -7415,7 +7416,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>41791</v>
       </c>
@@ -7435,7 +7436,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>41821</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>41852</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>174</v>
@@ -7505,7 +7506,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>200</v>
@@ -7551,7 +7552,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>41913</v>
       </c>
@@ -7575,7 +7576,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>41944</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>204</v>
@@ -7623,7 +7624,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40" t="s">
         <v>206</v>
       </c>
@@ -7647,7 +7648,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23" t="s">
         <v>208</v>
       </c>
@@ -7665,7 +7666,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>42005</v>
       </c>
@@ -7689,7 +7690,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>42036</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7733,7 +7734,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>42064</v>
       </c>
@@ -7755,7 +7756,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42095</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>210</v>
@@ -7799,7 +7800,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>214</v>
@@ -7821,7 +7822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>215</v>
@@ -7843,7 +7844,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41">
         <v>42125</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -7887,7 +7888,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>42156</v>
       </c>
@@ -7909,7 +7910,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>174</v>
@@ -7951,7 +7952,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>223</v>
@@ -7973,7 +7974,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42217</v>
       </c>
@@ -7997,7 +7998,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>42248</v>
       </c>
@@ -8021,7 +8022,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>42278</v>
       </c>
@@ -8045,7 +8046,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>42309</v>
       </c>
@@ -8069,7 +8070,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>229</v>
@@ -8089,7 +8090,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>42339</v>
       </c>
@@ -8113,7 +8114,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="48" t="s">
         <v>231</v>
       </c>
@@ -8131,7 +8132,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>42370</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>174</v>
@@ -8175,7 +8176,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>232</v>
@@ -8199,7 +8200,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>42401</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>42430</v>
       </c>
@@ -8243,7 +8244,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>42461</v>
       </c>
@@ -8263,7 +8264,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>42491</v>
       </c>
@@ -8287,7 +8288,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -8311,7 +8312,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>42552</v>
       </c>
@@ -8335,7 +8336,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>42583</v>
       </c>
@@ -8359,7 +8360,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>42614</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -8407,7 +8408,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>42644</v>
       </c>
@@ -8427,7 +8428,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>213</v>
@@ -8451,7 +8452,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8473,7 +8474,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>42675</v>
       </c>
@@ -8497,7 +8498,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>42705</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>249</v>
@@ -8543,7 +8544,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="48" t="s">
         <v>251</v>
       </c>
@@ -8561,7 +8562,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>42736</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>252</v>
@@ -8605,7 +8606,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>253</v>
@@ -8625,7 +8626,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40" t="s">
         <v>255</v>
       </c>
@@ -8645,7 +8646,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>42795</v>
       </c>
@@ -8665,7 +8666,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>42826</v>
       </c>
@@ -8685,7 +8686,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>42856</v>
       </c>
@@ -8705,7 +8706,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>42887</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>42917</v>
       </c>
@@ -8751,7 +8752,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>42948</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>42979</v>
       </c>
@@ -8797,7 +8798,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>210</v>
@@ -8819,7 +8820,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>181</v>
@@ -8839,7 +8840,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -8859,7 +8860,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -8879,7 +8880,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>259</v>
@@ -8925,7 +8926,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="48" t="s">
         <v>261</v>
       </c>
@@ -8943,7 +8944,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -9015,7 +9016,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -9035,7 +9036,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>43221</v>
       </c>
@@ -9055,7 +9056,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -9075,7 +9076,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -9095,7 +9096,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>43344</v>
       </c>
@@ -9115,7 +9116,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43374</v>
       </c>
@@ -9135,7 +9136,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43405</v>
       </c>
@@ -9155,7 +9156,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9203,7 +9204,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>266</v>
       </c>
@@ -9221,7 +9222,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43466</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43497</v>
       </c>
@@ -9267,7 +9268,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43525</v>
       </c>
@@ -9287,7 +9288,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9331,7 +9332,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9351,7 +9352,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>43647</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>43678</v>
       </c>
@@ -9397,7 +9398,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9417,7 +9418,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>43770</v>
       </c>
@@ -9463,7 +9464,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9507,7 +9508,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23" t="s">
         <v>273</v>
       </c>
@@ -9525,7 +9526,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>43831</v>
       </c>
@@ -9545,7 +9546,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43862</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>43891</v>
       </c>
@@ -9589,7 +9590,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>43922</v>
       </c>
@@ -9609,7 +9610,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>43952</v>
       </c>
@@ -9629,7 +9630,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43983</v>
       </c>
@@ -9649,7 +9650,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>44013</v>
       </c>
@@ -9669,7 +9670,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44044</v>
       </c>
@@ -9689,7 +9690,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>44075</v>
       </c>
@@ -9709,7 +9710,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44105</v>
       </c>
@@ -9729,7 +9730,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44136</v>
       </c>
@@ -9749,7 +9750,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44166</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>242</v>
@@ -9793,7 +9794,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23" t="s">
         <v>277</v>
       </c>
@@ -9813,7 +9814,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9833,7 +9834,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -9853,7 +9854,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -9873,7 +9874,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -9893,7 +9894,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -9913,7 +9914,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -9981,7 +9982,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -10001,7 +10002,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -10021,7 +10022,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -10041,7 +10042,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>282</v>
       </c>
@@ -10085,7 +10086,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -10105,7 +10106,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -10125,7 +10126,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -10145,7 +10146,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -10165,7 +10166,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -10185,7 +10186,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -10205,7 +10206,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>174</v>
@@ -10229,7 +10230,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44743</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>44774</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>44805</v>
       </c>
@@ -10297,7 +10298,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>44835</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>44866</v>
       </c>
@@ -10343,7 +10344,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44896</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10389,7 +10390,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="48" t="s">
         <v>287</v>
       </c>
@@ -10407,7 +10408,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>44927</v>
       </c>
@@ -10427,7 +10428,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>44958</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>44986</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>116</v>
@@ -10501,7 +10502,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>45017</v>
       </c>
@@ -10527,20 +10528,22 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>45047</v>
       </c>
       <c r="B395" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C395" s="13"/>
+      <c r="C395" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D395" s="39"/>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G395" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
@@ -10549,7 +10552,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>128</v>
@@ -10571,11 +10574,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>45078</v>
       </c>
-      <c r="B397" s="20"/>
+      <c r="B397" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
@@ -10584,12 +10589,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H397" s="39"/>
+      <c r="H397" s="39">
+        <v>1</v>
+      </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K397" s="49">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>45108</v>
       </c>
@@ -10607,7 +10616,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>45139</v>
       </c>
@@ -10625,7 +10634,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>45170</v>
       </c>
@@ -10643,7 +10652,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>45200</v>
       </c>
@@ -10661,7 +10670,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>45231</v>
       </c>
@@ -10679,7 +10688,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>45261</v>
       </c>
@@ -10697,7 +10706,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>45292</v>
       </c>
@@ -10715,7 +10724,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>45323</v>
       </c>
@@ -10733,7 +10742,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>45352</v>
       </c>
@@ -10751,7 +10760,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>45383</v>
       </c>
@@ -10769,7 +10778,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>45413</v>
       </c>
@@ -10787,7 +10796,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>45444</v>
       </c>
@@ -10805,7 +10814,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>45474</v>
       </c>
@@ -10823,7 +10832,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>45505</v>
       </c>
@@ -10841,7 +10850,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>45536</v>
       </c>
@@ -10859,7 +10868,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>45566</v>
       </c>
@@ -10877,7 +10886,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>45597</v>
       </c>
@@ -10895,7 +10904,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>45627</v>
       </c>
@@ -10913,7 +10922,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>45658</v>
       </c>
@@ -10931,7 +10940,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>45689</v>
       </c>
@@ -10949,7 +10958,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>45717</v>
       </c>
@@ -10967,7 +10976,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>45748</v>
       </c>
@@ -10985,7 +10994,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>45778</v>
       </c>
@@ -11003,7 +11012,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>45809</v>
       </c>
@@ -11021,7 +11030,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>45839</v>
       </c>
@@ -11039,7 +11048,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>45870</v>
       </c>
@@ -11057,7 +11066,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>45901</v>
       </c>
@@ -11075,7 +11084,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>45931</v>
       </c>
@@ -11093,7 +11102,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>45962</v>
       </c>
@@ -11111,7 +11120,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>45992</v>
       </c>
@@ -11129,7 +11138,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>46023</v>
       </c>
@@ -11147,7 +11156,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>46054</v>
       </c>
@@ -11165,7 +11174,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>46082</v>
       </c>
@@ -11183,7 +11192,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>46113</v>
       </c>
@@ -11201,7 +11210,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>46143</v>
       </c>
@@ -11219,7 +11228,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>46174</v>
       </c>
@@ -11237,7 +11246,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>46204</v>
       </c>
@@ -11255,7 +11264,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>46235</v>
       </c>
@@ -11273,7 +11282,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>46266</v>
       </c>
@@ -11291,7 +11300,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>46296</v>
       </c>
@@ -11309,7 +11318,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>46327</v>
       </c>
@@ -11327,7 +11336,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>46357</v>
       </c>
@@ -11345,7 +11354,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>46388</v>
       </c>
@@ -11363,7 +11372,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>46419</v>
       </c>
@@ -11381,7 +11390,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>46447</v>
       </c>
@@ -11399,7 +11408,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>46478</v>
       </c>
@@ -11417,7 +11426,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>46508</v>
       </c>
@@ -11435,7 +11444,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>46539</v>
       </c>
@@ -11453,7 +11462,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>46569</v>
       </c>
@@ -11471,7 +11480,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>46600</v>
       </c>
@@ -11489,7 +11498,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>46631</v>
       </c>
@@ -11507,7 +11516,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>46661</v>
       </c>
@@ -11525,7 +11534,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>46692</v>
       </c>
@@ -11543,7 +11552,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>46722</v>
       </c>
@@ -11561,7 +11570,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>46753</v>
       </c>
@@ -11579,7 +11588,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>46784</v>
       </c>
@@ -11597,7 +11606,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>46813</v>
       </c>
@@ -11615,7 +11624,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>46844</v>
       </c>
@@ -11633,7 +11642,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>46874</v>
       </c>
@@ -11651,7 +11660,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>46905</v>
       </c>
@@ -11669,7 +11678,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>46935</v>
       </c>
@@ -11687,7 +11696,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>46966</v>
       </c>
@@ -11705,7 +11714,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>46997</v>
       </c>
@@ -11723,7 +11732,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>47027</v>
       </c>
@@ -11741,7 +11750,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>47058</v>
       </c>
@@ -11759,7 +11768,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>47088</v>
       </c>
@@ -11777,7 +11786,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>47119</v>
       </c>
@@ -11795,7 +11804,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>47150</v>
       </c>
@@ -11813,7 +11822,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>47178</v>
       </c>
@@ -11831,7 +11840,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>47209</v>
       </c>
@@ -11849,7 +11858,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>47239</v>
       </c>
@@ -11867,7 +11876,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>47270</v>
       </c>
@@ -11885,7 +11894,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>47300</v>
       </c>
@@ -11903,7 +11912,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>47331</v>
       </c>
@@ -11921,7 +11930,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>47362</v>
       </c>
@@ -11939,7 +11948,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>47392</v>
       </c>
@@ -11957,7 +11966,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>47423</v>
       </c>
@@ -11975,7 +11984,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>47453</v>
       </c>
@@ -11993,7 +12002,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>47484</v>
       </c>
@@ -12011,7 +12020,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>47515</v>
       </c>
@@ -12029,7 +12038,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>47543</v>
       </c>
@@ -12047,7 +12056,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>47574</v>
       </c>
@@ -12065,7 +12074,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>47604</v>
       </c>
@@ -12083,7 +12092,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>47635</v>
       </c>
@@ -12101,7 +12110,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>47665</v>
       </c>
@@ -12119,7 +12128,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>47696</v>
       </c>
@@ -12137,7 +12146,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>47727</v>
       </c>
@@ -12155,7 +12164,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>47757</v>
       </c>
@@ -12173,7 +12182,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>47788</v>
       </c>
@@ -12191,7 +12200,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>47818</v>
       </c>
@@ -12209,7 +12218,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>47849</v>
       </c>
@@ -12227,7 +12236,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>47880</v>
       </c>
@@ -12245,7 +12254,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>47908</v>
       </c>
@@ -12263,7 +12272,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>47939</v>
       </c>
@@ -12281,7 +12290,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>47969</v>
       </c>
@@ -12299,7 +12308,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>48000</v>
       </c>
@@ -12317,7 +12326,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>48030</v>
       </c>
@@ -12335,7 +12344,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>48061</v>
       </c>
@@ -12353,7 +12362,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>48092</v>
       </c>
@@ -12371,7 +12380,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>48122</v>
       </c>
@@ -12389,7 +12398,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>48153</v>
       </c>
@@ -12407,7 +12416,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>48183</v>
       </c>
@@ -12425,7 +12434,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>48214</v>
       </c>
@@ -12443,7 +12452,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>48245</v>
       </c>
@@ -12461,7 +12470,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>48274</v>
       </c>
@@ -12479,7 +12488,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>48305</v>
       </c>
@@ -12497,7 +12506,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>48335</v>
       </c>
@@ -12515,7 +12524,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>48366</v>
       </c>
@@ -12533,7 +12542,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>48396</v>
       </c>
@@ -12551,7 +12560,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>48427</v>
       </c>
@@ -12569,7 +12578,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>48458</v>
       </c>
@@ -12587,7 +12596,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>48488</v>
       </c>
@@ -12605,7 +12614,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>48519</v>
       </c>
@@ -12623,7 +12632,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>48549</v>
       </c>
@@ -12641,7 +12650,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>48580</v>
       </c>
@@ -12659,7 +12668,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>48611</v>
       </c>
@@ -12677,7 +12686,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12693,7 +12702,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12709,7 +12718,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12725,7 +12734,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -12741,7 +12750,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -12757,7 +12766,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="41"/>
       <c r="B519" s="15"/>
       <c r="C519" s="42"/>
@@ -12788,10 +12797,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12814,28 +12823,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12848,7 +12857,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12877,7 +12886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12897,17 +12906,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12928,7 +12937,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12955,7 +12964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12981,7 +12990,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13007,7 +13016,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13033,7 +13042,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13059,7 +13068,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13085,7 +13094,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13111,7 +13120,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13137,7 +13146,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13157,7 +13166,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13177,7 +13186,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13197,7 +13206,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13218,7 +13227,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13239,7 +13248,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13260,7 +13269,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13281,7 +13290,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13302,7 +13311,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13323,7 +13332,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13344,7 +13353,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13365,7 +13374,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13407,7 +13416,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13428,7 +13437,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13449,7 +13458,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13470,7 +13479,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13491,7 +13500,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13512,7 +13521,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13533,7 +13542,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13554,7 +13563,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13575,7 +13584,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13596,7 +13605,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13617,7 +13626,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13626,7 +13635,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13635,7 +13644,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13644,7 +13653,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13653,7 +13662,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13662,7 +13671,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13671,7 +13680,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13680,7 +13689,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13689,7 +13698,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13698,7 +13707,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13707,7 +13716,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13716,7 +13725,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13725,7 +13734,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13734,7 +13743,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13743,7 +13752,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13752,7 +13761,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13761,7 +13770,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13770,7 +13779,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13779,7 +13788,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13788,7 +13797,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13797,7 +13806,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13806,7 +13815,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13815,7 +13824,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13824,7 +13833,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13833,7 +13842,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13842,7 +13851,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13851,7 +13860,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13860,7 +13869,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13869,7 +13878,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13878,7 +13887,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BANICO, PILAR.xlsx
+++ b/REGULAR/BANICO, PILAR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C13553D-98B8-422A-A6C8-BF7F5E96C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="292">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1028,11 +1027,14 @@
   <si>
     <t>5/13-16,19/2023</t>
   </si>
+  <si>
+    <t>7/17-18/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1713,7 +1715,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1730,25 +1732,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2055,34 +2057,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A388" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A388" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B398" sqref="B398"/>
+      <selection pane="bottomLeft" activeCell="I398" sqref="I398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2105,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2127,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2149,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2155,7 +2157,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2168,7 +2170,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2185,7 +2187,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2229,7 +2231,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>173.37099999999995</v>
+        <v>174.62099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2239,12 +2241,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241.55599999999998</v>
+        <v>240.80599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2266,7 +2268,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36312</v>
       </c>
@@ -2284,7 +2286,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36342</v>
       </c>
@@ -2304,7 +2306,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36373</v>
       </c>
@@ -2324,7 +2326,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2344,7 +2346,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36434</v>
       </c>
@@ -2364,7 +2366,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>36465</v>
       </c>
@@ -2384,7 +2386,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36495</v>
       </c>
@@ -2408,7 +2410,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2428,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43831</v>
       </c>
@@ -2446,7 +2448,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43922</v>
       </c>
@@ -2512,7 +2514,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43952</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -2576,7 +2578,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -2596,7 +2598,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -2616,7 +2618,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -2660,7 +2662,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -2684,7 +2686,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -2702,7 +2704,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>37013</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -2774,7 +2776,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -2798,7 +2800,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37012</v>
       </c>
@@ -2818,7 +2820,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37043</v>
       </c>
@@ -2838,7 +2840,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37073</v>
       </c>
@@ -2858,7 +2860,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37104</v>
       </c>
@@ -2878,7 +2880,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37135</v>
       </c>
@@ -2898,7 +2900,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37165</v>
       </c>
@@ -2918,7 +2920,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37196</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -2968,7 +2970,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>60</v>
       </c>
@@ -2986,7 +2988,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -3008,7 +3010,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37288</v>
       </c>
@@ -3032,7 +3034,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37316</v>
       </c>
@@ -3052,7 +3054,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37347</v>
       </c>
@@ -3072,7 +3074,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37377</v>
       </c>
@@ -3096,7 +3098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3116,7 +3118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37408</v>
       </c>
@@ -3136,7 +3138,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37438</v>
       </c>
@@ -3156,7 +3158,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37469</v>
       </c>
@@ -3176,7 +3178,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37500</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37530</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3238,7 +3240,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37561</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3280,7 +3282,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37591</v>
       </c>
@@ -3302,7 +3304,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>71</v>
       </c>
@@ -3320,7 +3322,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37622</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37653</v>
       </c>
@@ -3360,7 +3362,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37681</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37712</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -3426,7 +3428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37742</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37773</v>
       </c>
@@ -3468,7 +3470,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37803</v>
       </c>
@@ -3488,7 +3490,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37834</v>
       </c>
@@ -3508,7 +3510,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37865</v>
       </c>
@@ -3528,7 +3530,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37895</v>
       </c>
@@ -3548,7 +3550,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37926</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -3590,7 +3592,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37956</v>
       </c>
@@ -3610,7 +3612,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>79</v>
       </c>
@@ -3628,7 +3630,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37987</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>38018</v>
       </c>
@@ -3668,7 +3670,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38047</v>
       </c>
@@ -3688,7 +3690,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38078</v>
       </c>
@@ -3708,7 +3710,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38108</v>
       </c>
@@ -3727,7 +3729,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3747,7 +3749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38139</v>
       </c>
@@ -3767,7 +3769,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38169</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3809,7 +3811,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38200</v>
       </c>
@@ -3829,7 +3831,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38231</v>
       </c>
@@ -3849,7 +3851,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38261</v>
       </c>
@@ -3869,7 +3871,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38292</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3913,7 +3915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>86</v>
@@ -3935,7 +3937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38322</v>
       </c>
@@ -3959,7 +3961,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3975,7 +3977,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>90</v>
       </c>
@@ -3993,7 +3995,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38353</v>
       </c>
@@ -4013,7 +4015,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38384</v>
       </c>
@@ -4033,7 +4035,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38412</v>
       </c>
@@ -4053,7 +4055,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38443</v>
       </c>
@@ -4073,7 +4075,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38473</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>95</v>
@@ -4119,7 +4121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4137,7 +4139,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -4183,7 +4185,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -4207,7 +4209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -4227,7 +4229,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -4247,7 +4249,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>101</v>
@@ -4295,7 +4297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38687</v>
       </c>
@@ -4315,7 +4317,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4331,7 +4333,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>103</v>
       </c>
@@ -4349,7 +4351,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38718</v>
       </c>
@@ -4369,7 +4371,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38749</v>
       </c>
@@ -4389,7 +4391,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38777</v>
       </c>
@@ -4409,7 +4411,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38808</v>
       </c>
@@ -4429,7 +4431,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38838</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38869</v>
       </c>
@@ -4473,7 +4475,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38899</v>
       </c>
@@ -4493,7 +4495,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38930</v>
       </c>
@@ -4513,7 +4515,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38961</v>
       </c>
@@ -4533,7 +4535,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38991</v>
       </c>
@@ -4553,7 +4555,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39022</v>
       </c>
@@ -4573,7 +4575,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39052</v>
       </c>
@@ -4593,7 +4595,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>106</v>
       </c>
@@ -4611,7 +4613,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39083</v>
       </c>
@@ -4631,7 +4633,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39114</v>
       </c>
@@ -4651,7 +4653,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39142</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>108</v>
@@ -4695,7 +4697,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39173</v>
       </c>
@@ -4715,7 +4717,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39203</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>39234</v>
       </c>
@@ -4761,7 +4763,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39264</v>
       </c>
@@ -4781,7 +4783,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39295</v>
       </c>
@@ -4801,7 +4803,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39326</v>
       </c>
@@ -4821,7 +4823,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39356</v>
       </c>
@@ -4841,7 +4843,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39387</v>
       </c>
@@ -4861,7 +4863,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39417</v>
       </c>
@@ -4881,7 +4883,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
         <v>111</v>
       </c>
@@ -4899,7 +4901,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39448</v>
       </c>
@@ -4919,7 +4921,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39479</v>
       </c>
@@ -4939,7 +4941,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39508</v>
       </c>
@@ -4959,7 +4961,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39539</v>
       </c>
@@ -4979,7 +4981,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39569</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39600</v>
       </c>
@@ -5023,7 +5025,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39630</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>85</v>
@@ -5069,7 +5071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39661</v>
       </c>
@@ -5089,7 +5091,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39692</v>
       </c>
@@ -5113,7 +5115,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39722</v>
       </c>
@@ -5133,7 +5135,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39753</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39783</v>
       </c>
@@ -5183,7 +5185,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>118</v>
       </c>
@@ -5201,7 +5203,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39814</v>
       </c>
@@ -5221,7 +5223,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39845</v>
       </c>
@@ -5241,7 +5243,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39873</v>
       </c>
@@ -5261,7 +5263,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39904</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39934</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39965</v>
       </c>
@@ -5333,7 +5335,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -5353,7 +5355,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40026</v>
       </c>
@@ -5373,7 +5375,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40057</v>
       </c>
@@ -5393,7 +5395,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40087</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40118</v>
       </c>
@@ -5441,7 +5443,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40148</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
         <v>130</v>
       </c>
@@ -5485,7 +5487,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40179</v>
       </c>
@@ -5511,7 +5513,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40210</v>
       </c>
@@ -5531,7 +5533,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40238</v>
       </c>
@@ -5551,7 +5553,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40269</v>
       </c>
@@ -5571,7 +5573,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40299</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40330</v>
       </c>
@@ -5617,7 +5619,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40360</v>
       </c>
@@ -5637,7 +5639,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40391</v>
       </c>
@@ -5661,7 +5663,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
         <v>40422</v>
       </c>
@@ -5685,7 +5687,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40452</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>126</v>
@@ -5733,7 +5735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>128</v>
@@ -5753,7 +5755,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40492</v>
       </c>
@@ -5777,7 +5779,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40513</v>
       </c>
@@ -5797,7 +5799,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>137</v>
       </c>
@@ -5815,7 +5817,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40544</v>
       </c>
@@ -5835,7 +5837,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40575</v>
       </c>
@@ -5855,7 +5857,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40603</v>
       </c>
@@ -5875,7 +5877,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40634</v>
       </c>
@@ -5895,7 +5897,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40664</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40695</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>104</v>
@@ -5969,7 +5971,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40725</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>40756</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>124</v>
@@ -6043,7 +6045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40825</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40817</v>
       </c>
@@ -6089,7 +6091,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40848</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40878</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>144</v>
@@ -6161,7 +6163,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>146</v>
       </c>
@@ -6179,7 +6181,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40909</v>
       </c>
@@ -6203,7 +6205,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40940</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>148</v>
@@ -6249,7 +6251,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40969</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>151</v>
@@ -6291,7 +6293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41000</v>
       </c>
@@ -6311,7 +6313,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>153</v>
@@ -6331,7 +6333,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41030</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>154</v>
@@ -6375,7 +6377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>155</v>
@@ -6397,7 +6399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -6419,7 +6421,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>156</v>
@@ -6439,7 +6441,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41061</v>
       </c>
@@ -6459,7 +6461,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41091</v>
       </c>
@@ -6479,7 +6481,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41122</v>
       </c>
@@ -6499,7 +6501,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41153</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>116</v>
@@ -6543,7 +6545,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41183</v>
       </c>
@@ -6565,7 +6567,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>93</v>
@@ -6589,7 +6591,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6605,7 +6607,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41214</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>116</v>
@@ -6653,7 +6655,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41244</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>166</v>
       </c>
@@ -6697,7 +6699,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41275</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41306</v>
       </c>
@@ -6747,7 +6749,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>116</v>
@@ -6769,7 +6771,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41334</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41365</v>
       </c>
@@ -6814,7 +6816,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -6838,7 +6840,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41395</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>174</v>
@@ -6886,7 +6888,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41426</v>
       </c>
@@ -6906,7 +6908,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41456</v>
       </c>
@@ -6930,7 +6932,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41487</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -6976,7 +6978,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41518</v>
       </c>
@@ -6996,7 +6998,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>180</v>
@@ -7022,7 +7024,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>174</v>
@@ -7070,7 +7072,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>182</v>
@@ -7092,7 +7094,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41579</v>
       </c>
@@ -7116,7 +7118,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41609</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>185</v>
@@ -7162,7 +7164,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7178,7 +7180,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>187</v>
       </c>
@@ -7196,7 +7198,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41640</v>
       </c>
@@ -7218,7 +7220,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>107</v>
@@ -7238,7 +7240,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>188</v>
@@ -7258,7 +7260,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41671</v>
       </c>
@@ -7280,7 +7282,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41699</v>
       </c>
@@ -7302,7 +7304,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41730</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>193</v>
@@ -7348,7 +7350,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41760</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>174</v>
@@ -7394,7 +7396,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>196</v>
@@ -7416,7 +7418,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41791</v>
       </c>
@@ -7436,7 +7438,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41821</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41852</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>174</v>
@@ -7506,7 +7508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -7530,7 +7532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>200</v>
@@ -7552,7 +7554,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41913</v>
       </c>
@@ -7576,7 +7578,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41944</v>
       </c>
@@ -7602,7 +7604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>204</v>
@@ -7624,7 +7626,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40" t="s">
         <v>206</v>
       </c>
@@ -7648,7 +7650,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
         <v>208</v>
       </c>
@@ -7666,7 +7668,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42005</v>
       </c>
@@ -7690,7 +7692,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42036</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7734,7 +7736,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42064</v>
       </c>
@@ -7756,7 +7758,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42095</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>210</v>
@@ -7800,7 +7802,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>214</v>
@@ -7822,7 +7824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>215</v>
@@ -7844,7 +7846,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>42125</v>
       </c>
@@ -7868,7 +7870,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -7888,7 +7890,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42156</v>
       </c>
@@ -7910,7 +7912,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>174</v>
@@ -7952,7 +7954,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>223</v>
@@ -7974,7 +7976,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42217</v>
       </c>
@@ -7998,7 +8000,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42248</v>
       </c>
@@ -8022,7 +8024,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42278</v>
       </c>
@@ -8046,7 +8048,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42309</v>
       </c>
@@ -8070,7 +8072,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>229</v>
@@ -8090,7 +8092,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42339</v>
       </c>
@@ -8114,7 +8116,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="48" t="s">
         <v>231</v>
       </c>
@@ -8132,7 +8134,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42370</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>174</v>
@@ -8176,7 +8178,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>232</v>
@@ -8200,7 +8202,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42401</v>
       </c>
@@ -8224,7 +8226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42430</v>
       </c>
@@ -8244,7 +8246,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42461</v>
       </c>
@@ -8264,7 +8266,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42491</v>
       </c>
@@ -8288,7 +8290,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -8312,7 +8314,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42552</v>
       </c>
@@ -8336,7 +8338,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42583</v>
       </c>
@@ -8360,7 +8362,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42614</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -8408,7 +8410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42644</v>
       </c>
@@ -8428,7 +8430,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>213</v>
@@ -8452,7 +8454,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8474,7 +8476,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42675</v>
       </c>
@@ -8498,7 +8500,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42705</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>249</v>
@@ -8544,7 +8546,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
         <v>251</v>
       </c>
@@ -8562,7 +8564,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42736</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>252</v>
@@ -8606,7 +8608,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>253</v>
@@ -8626,7 +8628,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40" t="s">
         <v>255</v>
       </c>
@@ -8646,7 +8648,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42795</v>
       </c>
@@ -8666,7 +8668,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42826</v>
       </c>
@@ -8686,7 +8688,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42856</v>
       </c>
@@ -8706,7 +8708,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42887</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42917</v>
       </c>
@@ -8752,7 +8754,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42948</v>
       </c>
@@ -8776,7 +8778,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42979</v>
       </c>
@@ -8798,7 +8800,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>210</v>
@@ -8820,7 +8822,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>181</v>
@@ -8840,7 +8842,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -8860,7 +8862,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -8880,7 +8882,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -8904,7 +8906,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>259</v>
@@ -8926,7 +8928,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="48" t="s">
         <v>261</v>
       </c>
@@ -8944,7 +8946,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8970,7 +8972,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8996,7 +8998,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -9016,7 +9018,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -9036,7 +9038,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43221</v>
       </c>
@@ -9056,7 +9058,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -9076,7 +9078,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -9096,7 +9098,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43344</v>
       </c>
@@ -9116,7 +9118,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43374</v>
       </c>
@@ -9136,7 +9138,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43405</v>
       </c>
@@ -9156,7 +9158,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9182,7 +9184,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9204,7 +9206,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>266</v>
       </c>
@@ -9222,7 +9224,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43466</v>
       </c>
@@ -9248,7 +9250,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43497</v>
       </c>
@@ -9268,7 +9270,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43525</v>
       </c>
@@ -9288,7 +9290,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9312,7 +9314,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9332,7 +9334,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9352,7 +9354,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43647</v>
       </c>
@@ -9378,7 +9380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43678</v>
       </c>
@@ -9398,7 +9400,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9418,7 +9420,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43770</v>
       </c>
@@ -9464,7 +9466,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9508,7 +9510,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23" t="s">
         <v>273</v>
       </c>
@@ -9526,7 +9528,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43831</v>
       </c>
@@ -9546,7 +9548,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43862</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43891</v>
       </c>
@@ -9590,7 +9592,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43922</v>
       </c>
@@ -9610,7 +9612,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43952</v>
       </c>
@@ -9630,7 +9632,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43983</v>
       </c>
@@ -9650,7 +9652,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44013</v>
       </c>
@@ -9670,7 +9672,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44044</v>
       </c>
@@ -9690,7 +9692,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44075</v>
       </c>
@@ -9710,7 +9712,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44105</v>
       </c>
@@ -9730,7 +9732,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44136</v>
       </c>
@@ -9750,7 +9752,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44166</v>
       </c>
@@ -9774,7 +9776,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>242</v>
@@ -9794,7 +9796,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23" t="s">
         <v>277</v>
       </c>
@@ -9814,7 +9816,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9834,7 +9836,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -9854,7 +9856,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -9874,7 +9876,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -9894,7 +9896,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -9914,7 +9916,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -9962,7 +9964,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -9982,7 +9984,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -10002,7 +10004,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -10022,7 +10024,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -10042,7 +10044,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>282</v>
       </c>
@@ -10086,7 +10088,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -10106,7 +10108,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -10126,7 +10128,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -10146,7 +10148,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -10166,7 +10168,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -10186,7 +10188,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -10206,7 +10208,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>174</v>
@@ -10230,7 +10232,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44743</v>
       </c>
@@ -10256,7 +10258,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44774</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44805</v>
       </c>
@@ -10298,7 +10300,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44835</v>
       </c>
@@ -10324,7 +10326,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44866</v>
       </c>
@@ -10344,7 +10346,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44896</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10390,7 +10392,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>287</v>
       </c>
@@ -10408,7 +10410,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44927</v>
       </c>
@@ -10428,7 +10430,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44958</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44986</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>116</v>
@@ -10502,7 +10504,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45017</v>
       </c>
@@ -10528,7 +10530,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45047</v>
       </c>
@@ -10552,7 +10554,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>128</v>
@@ -10574,20 +10576,22 @@
         <v>290</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45078</v>
       </c>
       <c r="B397" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39">
         <v>1</v>
@@ -10598,11 +10602,13 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45108</v>
       </c>
-      <c r="B398" s="20"/>
+      <c r="B398" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
@@ -10611,12 +10617,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H398" s="39"/>
+      <c r="H398" s="39">
+        <v>2</v>
+      </c>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K398" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45139</v>
       </c>
@@ -10634,7 +10644,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>45170</v>
       </c>
@@ -10652,7 +10662,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45200</v>
       </c>
@@ -10670,7 +10680,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45231</v>
       </c>
@@ -10688,7 +10698,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45261</v>
       </c>
@@ -10706,7 +10716,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45292</v>
       </c>
@@ -10724,7 +10734,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45323</v>
       </c>
@@ -10742,7 +10752,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45352</v>
       </c>
@@ -10760,7 +10770,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45383</v>
       </c>
@@ -10778,7 +10788,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45413</v>
       </c>
@@ -10796,7 +10806,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>45444</v>
       </c>
@@ -10814,7 +10824,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>45474</v>
       </c>
@@ -10832,7 +10842,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>45505</v>
       </c>
@@ -10850,7 +10860,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>45536</v>
       </c>
@@ -10868,7 +10878,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45566</v>
       </c>
@@ -10886,7 +10896,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45597</v>
       </c>
@@ -10904,7 +10914,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45627</v>
       </c>
@@ -10922,7 +10932,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45658</v>
       </c>
@@ -10940,7 +10950,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45689</v>
       </c>
@@ -10958,7 +10968,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45717</v>
       </c>
@@ -10976,7 +10986,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45748</v>
       </c>
@@ -10994,7 +11004,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45778</v>
       </c>
@@ -11012,7 +11022,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45809</v>
       </c>
@@ -11030,7 +11040,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>45839</v>
       </c>
@@ -11048,7 +11058,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>45870</v>
       </c>
@@ -11066,7 +11076,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>45901</v>
       </c>
@@ -11084,7 +11094,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>45931</v>
       </c>
@@ -11102,7 +11112,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>45962</v>
       </c>
@@ -11120,7 +11130,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>45992</v>
       </c>
@@ -11138,7 +11148,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46023</v>
       </c>
@@ -11156,7 +11166,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46054</v>
       </c>
@@ -11174,7 +11184,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>46082</v>
       </c>
@@ -11192,7 +11202,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46113</v>
       </c>
@@ -11210,7 +11220,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>46143</v>
       </c>
@@ -11228,7 +11238,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>46174</v>
       </c>
@@ -11246,7 +11256,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>46204</v>
       </c>
@@ -11264,7 +11274,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>46235</v>
       </c>
@@ -11282,7 +11292,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>46266</v>
       </c>
@@ -11300,7 +11310,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>46296</v>
       </c>
@@ -11318,7 +11328,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>46327</v>
       </c>
@@ -11336,7 +11346,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>46357</v>
       </c>
@@ -11354,7 +11364,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>46388</v>
       </c>
@@ -11372,7 +11382,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>46419</v>
       </c>
@@ -11390,7 +11400,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>46447</v>
       </c>
@@ -11408,7 +11418,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>46478</v>
       </c>
@@ -11426,7 +11436,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>46508</v>
       </c>
@@ -11444,7 +11454,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>46539</v>
       </c>
@@ -11462,7 +11472,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>46569</v>
       </c>
@@ -11480,7 +11490,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>46600</v>
       </c>
@@ -11498,7 +11508,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>46631</v>
       </c>
@@ -11516,7 +11526,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>46661</v>
       </c>
@@ -11534,7 +11544,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>46692</v>
       </c>
@@ -11552,7 +11562,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>46722</v>
       </c>
@@ -11570,7 +11580,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>46753</v>
       </c>
@@ -11588,7 +11598,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>46784</v>
       </c>
@@ -11606,7 +11616,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>46813</v>
       </c>
@@ -11624,7 +11634,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>46844</v>
       </c>
@@ -11642,7 +11652,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>46874</v>
       </c>
@@ -11660,7 +11670,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>46905</v>
       </c>
@@ -11678,7 +11688,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>46935</v>
       </c>
@@ -11696,7 +11706,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>46966</v>
       </c>
@@ -11714,7 +11724,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>46997</v>
       </c>
@@ -11732,7 +11742,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>47027</v>
       </c>
@@ -11750,7 +11760,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>47058</v>
       </c>
@@ -11768,7 +11778,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>47088</v>
       </c>
@@ -11786,7 +11796,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>47119</v>
       </c>
@@ -11804,7 +11814,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>47150</v>
       </c>
@@ -11822,7 +11832,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>47178</v>
       </c>
@@ -11840,7 +11850,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>47209</v>
       </c>
@@ -11858,7 +11868,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>47239</v>
       </c>
@@ -11876,7 +11886,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>47270</v>
       </c>
@@ -11894,7 +11904,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>47300</v>
       </c>
@@ -11912,7 +11922,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>47331</v>
       </c>
@@ -11930,7 +11940,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>47362</v>
       </c>
@@ -11948,7 +11958,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>47392</v>
       </c>
@@ -11966,7 +11976,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>47423</v>
       </c>
@@ -11984,7 +11994,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>47453</v>
       </c>
@@ -12002,7 +12012,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>47484</v>
       </c>
@@ -12020,7 +12030,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>47515</v>
       </c>
@@ -12038,7 +12048,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>47543</v>
       </c>
@@ -12056,7 +12066,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>47574</v>
       </c>
@@ -12074,7 +12084,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>47604</v>
       </c>
@@ -12092,7 +12102,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>47635</v>
       </c>
@@ -12110,7 +12120,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>47665</v>
       </c>
@@ -12128,7 +12138,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>47696</v>
       </c>
@@ -12146,7 +12156,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>47727</v>
       </c>
@@ -12164,7 +12174,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>47757</v>
       </c>
@@ -12182,7 +12192,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>47788</v>
       </c>
@@ -12200,7 +12210,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>47818</v>
       </c>
@@ -12218,7 +12228,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>47849</v>
       </c>
@@ -12236,7 +12246,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>47880</v>
       </c>
@@ -12254,7 +12264,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>47908</v>
       </c>
@@ -12272,7 +12282,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>47939</v>
       </c>
@@ -12290,7 +12300,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>47969</v>
       </c>
@@ -12308,7 +12318,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>48000</v>
       </c>
@@ -12326,7 +12336,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>48030</v>
       </c>
@@ -12344,7 +12354,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>48061</v>
       </c>
@@ -12362,7 +12372,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>48092</v>
       </c>
@@ -12380,7 +12390,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>48122</v>
       </c>
@@ -12398,7 +12408,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>48153</v>
       </c>
@@ -12416,7 +12426,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>48183</v>
       </c>
@@ -12434,7 +12444,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>48214</v>
       </c>
@@ -12452,7 +12462,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>48245</v>
       </c>
@@ -12470,7 +12480,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>48274</v>
       </c>
@@ -12488,7 +12498,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>48305</v>
       </c>
@@ -12506,7 +12516,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>48335</v>
       </c>
@@ -12524,7 +12534,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>48366</v>
       </c>
@@ -12542,7 +12552,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>48396</v>
       </c>
@@ -12560,7 +12570,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>48427</v>
       </c>
@@ -12578,7 +12588,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>48458</v>
       </c>
@@ -12596,7 +12606,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>48488</v>
       </c>
@@ -12614,7 +12624,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>48519</v>
       </c>
@@ -12632,7 +12642,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>48549</v>
       </c>
@@ -12650,7 +12660,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>48580</v>
       </c>
@@ -12668,7 +12678,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>48611</v>
       </c>
@@ -12686,7 +12696,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12702,7 +12712,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12718,7 +12728,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12734,7 +12744,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -12750,7 +12760,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -12766,7 +12776,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="41"/>
       <c r="B519" s="15"/>
       <c r="C519" s="42"/>
@@ -12797,10 +12807,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12823,28 +12833,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12857,7 +12867,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12886,7 +12896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12906,17 +12916,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12937,7 +12947,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12964,7 +12974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12990,7 +13000,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13016,7 +13026,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13042,7 +13052,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13068,7 +13078,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13094,7 +13104,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13120,7 +13130,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13146,7 +13156,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13166,7 +13176,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13186,7 +13196,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13206,7 +13216,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13227,7 +13237,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13248,7 +13258,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13269,7 +13279,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13290,7 +13300,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13311,7 +13321,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13332,7 +13342,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13353,7 +13363,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13374,7 +13384,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13395,7 +13405,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13416,7 +13426,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13437,7 +13447,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13458,7 +13468,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13479,7 +13489,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13500,7 +13510,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13521,7 +13531,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13542,7 +13552,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13563,7 +13573,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13584,7 +13594,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13605,7 +13615,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13626,7 +13636,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13635,7 +13645,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13644,7 +13654,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13653,7 +13663,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13662,7 +13672,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13671,7 +13681,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13680,7 +13690,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13689,7 +13699,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13698,7 +13708,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13707,7 +13717,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13716,7 +13726,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13725,7 +13735,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13734,7 +13744,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13743,7 +13753,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13752,7 +13762,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13761,7 +13771,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13770,7 +13780,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13779,7 +13789,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13788,7 +13798,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13797,7 +13807,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13806,7 +13816,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13815,7 +13825,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13824,7 +13834,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13833,7 +13843,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13842,7 +13852,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13851,7 +13861,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13860,7 +13870,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13869,7 +13879,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13878,7 +13888,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13887,7 +13897,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
